--- a/Leetcode record for Shiyun.xlsx
+++ b/Leetcode record for Shiyun.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Eclipse Project_Shiyun\LeetCode_Shiyun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Eclipse Project_Shiyun\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Common Methods" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Record 1'!$A$1:$AH$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Record 1'!$A$1:$AJ$229</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="791">
   <si>
     <t>Two Pointers</t>
   </si>
@@ -5151,6 +5151,41 @@
 Also, can use recursion, set original val to be root.val
 -------------------
 REMEMBER: 1.set diff and closest node to the new value. 2. diff is Double, not Integer 3. don't misuse root and curr 4. don't break just because root diff is smaller than chile diff, see corner case</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Rotate Image</t>
+  </si>
+  <si>
+    <t>You are given an n x n 2D matrix representing an image.
+Rotate the image by 90 degrees (clockwise).
+Follow up:
+Could you do this in-place?</t>
+  </si>
+  <si>
+    <t>swap一定要很小心
+基本上就是先对角线对称在沿着中线翻转一下</t>
+  </si>
+  <si>
+    <t>public int climbStairs(int n) {
+        //2 scenarios: last step is 1, last step is 2
+        int[] dp = new int[n + 1]; //number of methods for each stair number
+        if (n == 1) return 1;
+        dp[1] = 1;
+        dp[2] = 2;
+        for(int i = 3; i &lt;= n; i++) {
+            dp[i] = dp[i - 1] + dp[i - 2];
+        }
+        return dp[n];        
+    }</t>
+  </si>
+  <si>
+    <t>设定一个limit，代表subset内元素的个数，循环套递归 &lt;== 其实也多余。。</t>
+  </si>
+  <si>
+    <t>sort之后，跳过重复的，注意res.add()和return的位置关系</t>
   </si>
 </sst>
 </file>
@@ -21320,10 +21355,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21523,6 +21558,15 @@
       <c r="G3" s="5">
         <v>42616</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="9">
+        <v>42425</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>784</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -22564,7 +22608,7 @@
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" ht="174" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -22577,9 +22621,17 @@
       <c r="D25" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="13" t="s">
+        <v>788</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="2"/>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="9">
+        <v>42791</v>
+      </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -23286,12 +23338,20 @@
       <c r="D40" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E40" s="13"/>
+      <c r="E40" s="13" t="s">
+        <v>789</v>
+      </c>
       <c r="F40" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G40" s="5">
         <v>42644</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" s="9">
+        <v>42791</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -23334,12 +23394,20 @@
       <c r="D41" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="E41" s="13"/>
+      <c r="E41" s="13" t="s">
+        <v>790</v>
+      </c>
       <c r="F41" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G41" s="5">
         <v>42645</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I41" s="9">
+        <v>42791</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -28969,6 +29037,29 @@
         <v>42780</v>
       </c>
     </row>
+    <row r="229" spans="1:31" ht="87" x14ac:dyDescent="0.35">
+      <c r="A229" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B229" s="8">
+        <v>48</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D229" s="22" t="s">
+        <v>786</v>
+      </c>
+      <c r="E229" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G229" s="9">
+        <v>42791</v>
+      </c>
+    </row>
     <row r="239" spans="1:31" ht="174" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>30</v>
@@ -28985,6 +29076,7 @@
       <c r="F239" s="22"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AJ229"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -41178,8 +41270,8 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Leetcode record for Shiyun.xlsx
+++ b/Leetcode record for Shiyun.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11210" windowHeight="5660" tabRatio="779"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11210" windowHeight="5660" tabRatio="779" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode Record 1" sheetId="1" r:id="rId1"/>
@@ -1354,15 +1354,6 @@
     <t>BST. Use binary search and mark the current ceiling and floor till null. Finally compare the distance and return floor or ceiling.
 NOTE: corner cases are when target value is bigger than all element or smaller than all elements. In such case, one of ceiling or floor remain the initial values, that is Integer.MAX_VALUE or Integer.MIN_VALUE. In such cases, return the one that is NOT equal to these values. Also, when there is only one node in the tree, return its own value. 
 Also, can use recursion, set original val to be root.val</t>
-  </si>
-  <si>
-    <t>You can't traverse a priority queue in that order because of the underlying implementation (I think it's min-heap in Java). 
-for (Event e : pq)
-doesn't iterate in the priority order.
-while(!pq.isEmpty()){
-  Event e = pq.poll();
-}
-This works but empties the queue.</t>
   </si>
   <si>
     <t>Comparator (obj1, obj2)</t>
@@ -5186,6 +5177,18 @@
   </si>
   <si>
     <t>sort之后，跳过重复的，注意res.add()和return的位置关系</t>
+  </si>
+  <si>
+    <t>add() == offer()
+poll() // remove the head
+remove(Object o)
+You can't traverse a priority queue in that order because of the underlying implementation (I think it's min-heap in Java). 
+for (Event e : pq)
+doesn't iterate in the priority order.
+while(!pq.isEmpty()){
+  Event e = pq.poll();
+}
+This works but empties the queue.</t>
   </si>
 </sst>
 </file>
@@ -21355,7 +21358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
@@ -21396,16 +21399,16 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>719</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>722</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>720</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>280</v>
@@ -21435,7 +21438,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>20</v>
@@ -21465,7 +21468,7 @@
         <v>71</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>105</v>
@@ -21480,13 +21483,13 @@
         <v>253</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AI1" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AJ1" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14" customHeight="1" x14ac:dyDescent="0.35">
@@ -21565,7 +21568,7 @@
         <v>42425</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -21993,10 +21996,10 @@
         <v>49</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>51</v>
@@ -22052,7 +22055,7 @@
         <v>53</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>32</v>
@@ -22243,13 +22246,13 @@
         <v>114</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D17" s="22" t="s">
+        <v>722</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>723</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>724</v>
       </c>
       <c r="G17" s="9">
         <v>42626</v>
@@ -22261,7 +22264,7 @@
         <v>42751</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="S17" s="8" t="s">
         <v>5</v>
@@ -22334,7 +22337,7 @@
         <v>72</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>51</v>
@@ -22622,7 +22625,7 @@
         <v>87</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="2"/>
@@ -22672,7 +22675,7 @@
         <v>89</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>4</v>
@@ -23015,7 +23018,7 @@
         <v>112</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>111</v>
@@ -23339,7 +23342,7 @@
         <v>129</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>81</v>
@@ -23395,7 +23398,7 @@
         <v>137</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>81</v>
@@ -23708,7 +23711,7 @@
         <v>147</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>69</v>
@@ -24371,10 +24374,10 @@
         <v>202</v>
       </c>
       <c r="D72" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="E72" s="13" t="s">
         <v>764</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>765</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>81</v>
@@ -24389,7 +24392,7 @@
         <v>42764</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="Q72" s="8" t="s">
         <v>5</v>
@@ -25036,7 +25039,7 @@
         <v>269</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>4</v>
@@ -25317,7 +25320,7 @@
         <v>302</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G107" s="9">
         <v>42700</v>
@@ -25346,7 +25349,7 @@
         <v>305</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>303</v>
@@ -25361,7 +25364,7 @@
         <v>42786</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K108" s="8" t="s">
         <v>5</v>
@@ -25387,10 +25390,10 @@
         <v>307</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G109" s="9">
         <v>42701</v>
@@ -25407,13 +25410,13 @@
         <v>167</v>
       </c>
       <c r="C110" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D110" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="D110" s="22" t="s">
+      <c r="E110" s="13" t="s">
         <v>317</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>318</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>4</v>
@@ -25422,7 +25425,7 @@
         <v>42623</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M110" s="8" t="s">
         <v>5</v>
@@ -25442,13 +25445,13 @@
         <v>280</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D111" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="D111" s="22" t="s">
-        <v>321</v>
-      </c>
       <c r="E111" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>59</v>
@@ -25477,13 +25480,13 @@
         <v>366</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>81</v>
@@ -25512,13 +25515,13 @@
         <v>364</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D113" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="D113" s="22" t="s">
-        <v>329</v>
-      </c>
       <c r="E113" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>4</v>
@@ -25544,19 +25547,19 @@
         <v>249</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D114" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="E114" s="16" t="s">
         <v>332</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>333</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>81</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>5</v>
@@ -25576,13 +25579,13 @@
         <v>320</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D115" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="D115" s="22" t="s">
+      <c r="E115" s="13" t="s">
         <v>336</v>
-      </c>
-      <c r="E115" s="13" t="s">
-        <v>337</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>81</v>
@@ -25608,13 +25611,13 @@
         <v>254</v>
       </c>
       <c r="C116" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D116" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="D116" s="22" t="s">
-        <v>339</v>
-      </c>
       <c r="E116" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>81</v>
@@ -25623,13 +25626,13 @@
         <v>42709</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K116" s="8" t="s">
         <v>5</v>
       </c>
       <c r="T116" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF116" s="8" t="s">
         <v>5</v>
@@ -25643,13 +25646,13 @@
         <v>131</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>81</v>
@@ -25658,13 +25661,13 @@
         <v>42716</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O117" s="8" t="s">
         <v>5</v>
       </c>
       <c r="T117" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF117" s="8" t="s">
         <v>5</v>
@@ -25678,13 +25681,13 @@
         <v>89</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>81</v>
@@ -25699,7 +25702,7 @@
         <v>42780</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V118" s="8" t="s">
         <v>5</v>
@@ -25713,13 +25716,13 @@
         <v>77</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D119" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="E119" s="13" t="s">
         <v>353</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>354</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>32</v>
@@ -25739,13 +25742,13 @@
         <v>216</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D120" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="D120" s="22" t="s">
-        <v>352</v>
-      </c>
       <c r="E120" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>32</v>
@@ -25768,16 +25771,16 @@
         <v>60</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D121" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="D121" s="22" t="s">
+      <c r="E121" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="E121" s="13" t="s">
+      <c r="F121" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="G121" s="9">
         <v>42719</v>
@@ -25797,13 +25800,13 @@
         <v>17</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D122" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="E122" s="13" t="s">
         <v>362</v>
-      </c>
-      <c r="E122" s="13" t="s">
-        <v>363</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>4</v>
@@ -25812,7 +25815,7 @@
         <v>42723</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q122" s="8" t="s">
         <v>5</v>
@@ -25829,13 +25832,13 @@
         <v>79</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D123" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>303</v>
@@ -25844,13 +25847,13 @@
         <v>42723</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N123" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF123" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="124" spans="1:34" ht="217.5" x14ac:dyDescent="0.35">
@@ -25861,13 +25864,13 @@
         <v>357</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D124" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="E124" s="13" t="s">
         <v>368</v>
-      </c>
-      <c r="E124" s="13" t="s">
-        <v>369</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>81</v>
@@ -25893,13 +25896,13 @@
         <v>346</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D125" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="E125" s="13" t="s">
         <v>373</v>
-      </c>
-      <c r="E125" s="13" t="s">
-        <v>374</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>32</v>
@@ -25928,13 +25931,13 @@
         <v>288</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D126" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>303</v>
@@ -25963,13 +25966,13 @@
         <v>392</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="E127" s="13" t="s">
         <v>378</v>
-      </c>
-      <c r="D127" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="E127" s="13" t="s">
-        <v>379</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>69</v>
@@ -25978,7 +25981,7 @@
         <v>42724</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q127" s="8" t="s">
         <v>5</v>
@@ -25992,13 +25995,13 @@
         <v>153</v>
       </c>
       <c r="C128" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="E128" s="13" t="s">
         <v>381</v>
-      </c>
-      <c r="D128" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="E128" s="13" t="s">
-        <v>382</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>32</v>
@@ -26007,7 +26010,7 @@
         <v>42724</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N128" s="8" t="s">
         <v>5</v>
@@ -26024,13 +26027,13 @@
         <v>274</v>
       </c>
       <c r="C129" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D129" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="D129" s="22" t="s">
+      <c r="E129" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E129" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>59</v>
@@ -26039,7 +26042,7 @@
         <v>42724</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N129" s="8" t="s">
         <v>5</v>
@@ -26056,13 +26059,13 @@
         <v>275</v>
       </c>
       <c r="C130" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D130" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="D130" s="22" t="s">
-        <v>389</v>
-      </c>
       <c r="E130" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>69</v>
@@ -26088,13 +26091,13 @@
         <v>475</v>
       </c>
       <c r="C131" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D131" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="D131" s="22" t="s">
+      <c r="E131" s="13" t="s">
         <v>393</v>
-      </c>
-      <c r="E131" s="13" t="s">
-        <v>394</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>81</v>
@@ -26120,19 +26123,19 @@
         <v>50</v>
       </c>
       <c r="C132" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D132" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="D132" s="22" t="s">
-        <v>398</v>
-      </c>
       <c r="F132" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G132" s="9">
         <v>42725</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U132" s="8" t="s">
         <v>5</v>
@@ -26146,13 +26149,13 @@
         <v>242</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="E133" s="13" t="s">
         <v>399</v>
-      </c>
-      <c r="D133" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="E133" s="13" t="s">
-        <v>400</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>69</v>
@@ -26161,7 +26164,7 @@
         <v>42725</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L133" s="8" t="s">
         <v>5</v>
@@ -26178,22 +26181,22 @@
         <v>438</v>
       </c>
       <c r="C134" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D134" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="D134" s="22" t="s">
-        <v>404</v>
-      </c>
       <c r="E134" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G134" s="9">
         <v>42725</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q134" s="8" t="s">
         <v>5</v>
@@ -26207,13 +26210,13 @@
         <v>292</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E135" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>81</v>
@@ -26222,7 +26225,7 @@
         <v>42726</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U135" s="8" t="s">
         <v>5</v>
@@ -26239,13 +26242,13 @@
         <v>409</v>
       </c>
       <c r="C136" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="E136" s="13" t="s">
         <v>409</v>
-      </c>
-      <c r="D136" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="E136" s="13" t="s">
-        <v>410</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>59</v>
@@ -26268,13 +26271,13 @@
         <v>401</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="E137" s="13" t="s">
         <v>414</v>
-      </c>
-      <c r="D137" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="E137" s="13" t="s">
-        <v>415</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>127</v>
@@ -26297,10 +26300,10 @@
         <v>293</v>
       </c>
       <c r="C138" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D138" s="22" t="s">
         <v>417</v>
-      </c>
-      <c r="D138" s="22" t="s">
-        <v>418</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>32</v>
@@ -26323,13 +26326,13 @@
         <v>294</v>
       </c>
       <c r="C139" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D139" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="D139" s="22" t="s">
+      <c r="E139" s="13" t="s">
         <v>420</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>421</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>81</v>
@@ -26352,13 +26355,13 @@
         <v>464</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>81</v>
@@ -26387,16 +26390,16 @@
         <v>46</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D141" s="22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>81</v>
@@ -26419,10 +26422,10 @@
         <v>412</v>
       </c>
       <c r="C142" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D142" s="22" t="s">
         <v>437</v>
-      </c>
-      <c r="D142" s="22" t="s">
-        <v>438</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>32</v>
@@ -26439,13 +26442,13 @@
         <v>415</v>
       </c>
       <c r="C143" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D143" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="D143" s="22" t="s">
+      <c r="E143" s="13" t="s">
         <v>441</v>
-      </c>
-      <c r="E143" s="13" t="s">
-        <v>442</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>32</v>
@@ -26454,7 +26457,7 @@
         <v>42728</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="144" spans="1:32" ht="217.5" x14ac:dyDescent="0.35">
@@ -26465,16 +26468,16 @@
         <v>437</v>
       </c>
       <c r="C144" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="E144" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="D144" s="22" t="s">
-        <v>556</v>
-      </c>
-      <c r="E144" s="13" t="s">
-        <v>447</v>
-      </c>
       <c r="F144" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G144" s="9">
         <v>42728</v>
@@ -26503,13 +26506,13 @@
         <v>300</v>
       </c>
       <c r="C145" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="E145" s="13" t="s">
         <v>448</v>
-      </c>
-      <c r="D145" s="22" t="s">
-        <v>450</v>
-      </c>
-      <c r="E145" s="13" t="s">
-        <v>449</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>81</v>
@@ -26518,7 +26521,7 @@
         <v>42731</v>
       </c>
       <c r="J145" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N145" s="8" t="s">
         <v>5</v>
@@ -26538,13 +26541,13 @@
         <v>354</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D146" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>81</v>
@@ -26573,13 +26576,13 @@
         <v>406</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D147" s="22" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>81</v>
@@ -26602,13 +26605,13 @@
         <v>434</v>
       </c>
       <c r="C148" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D148" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="E148" s="13" t="s">
         <v>458</v>
-      </c>
-      <c r="D148" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="E148" s="13" t="s">
-        <v>459</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>69</v>
@@ -26628,13 +26631,13 @@
         <v>15</v>
       </c>
       <c r="C149" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D149" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="D149" s="22" t="s">
+      <c r="E149" s="13" t="s">
         <v>463</v>
-      </c>
-      <c r="E149" s="13" t="s">
-        <v>464</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>69</v>
@@ -26643,7 +26646,7 @@
         <v>42732</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="150" spans="1:35" ht="261" x14ac:dyDescent="0.35">
@@ -26654,16 +26657,16 @@
         <v>18</v>
       </c>
       <c r="C150" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="D150" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="E150" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="G150" s="9">
         <v>42733</v>
@@ -26680,13 +26683,13 @@
         <v>16</v>
       </c>
       <c r="C151" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D151" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="D151" s="22" t="s">
+      <c r="E151" s="13" t="s">
         <v>471</v>
-      </c>
-      <c r="E151" s="13" t="s">
-        <v>472</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>69</v>
@@ -26695,7 +26698,7 @@
         <v>42733</v>
       </c>
       <c r="J151" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M151" s="8" t="s">
         <v>5</v>
@@ -26712,13 +26715,13 @@
         <v>259</v>
       </c>
       <c r="C152" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D152" s="22" t="s">
         <v>473</v>
       </c>
-      <c r="D152" s="22" t="s">
+      <c r="E152" s="13" t="s">
         <v>474</v>
-      </c>
-      <c r="E152" s="13" t="s">
-        <v>475</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>4</v>
@@ -26750,13 +26753,13 @@
         <v>454</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D153" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="E153" s="13" t="s">
         <v>479</v>
-      </c>
-      <c r="E153" s="13" t="s">
-        <v>480</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>81</v>
@@ -26776,13 +26779,13 @@
         <v>453</v>
       </c>
       <c r="C154" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D154" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="D154" s="22" t="s">
+      <c r="E154" s="13" t="s">
         <v>482</v>
-      </c>
-      <c r="E154" s="13" t="s">
-        <v>483</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>59</v>
@@ -26791,7 +26794,7 @@
         <v>42734</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U154" s="8" t="s">
         <v>5</v>
@@ -26805,13 +26808,13 @@
         <v>462</v>
       </c>
       <c r="C155" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D155" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="D155" s="22" t="s">
-        <v>486</v>
-      </c>
       <c r="E155" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>69</v>
@@ -26831,10 +26834,10 @@
         <v>86</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>59</v>
@@ -26857,10 +26860,10 @@
         <v>142</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>81</v>
@@ -26889,13 +26892,13 @@
         <v>109</v>
       </c>
       <c r="C158" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D158" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="D158" s="22" t="s">
-        <v>491</v>
-      </c>
       <c r="E158" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>59</v>
@@ -26904,7 +26907,7 @@
         <v>42736</v>
       </c>
       <c r="J158" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M158" s="8" t="s">
         <v>5</v>
@@ -26924,13 +26927,13 @@
         <v>108</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D159" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="D159" s="22" t="s">
-        <v>495</v>
-      </c>
       <c r="E159" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>32</v>
@@ -26939,7 +26942,7 @@
         <v>42736</v>
       </c>
       <c r="J159" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="P159" s="8" t="s">
         <v>5</v>
@@ -26956,13 +26959,13 @@
         <v>82</v>
       </c>
       <c r="C160" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D160" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="D160" s="22" t="s">
-        <v>500</v>
-      </c>
       <c r="E160" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>69</v>
@@ -26979,13 +26982,13 @@
         <v>2</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D161" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="E161" s="13" t="s">
         <v>503</v>
-      </c>
-      <c r="E161" s="13" t="s">
-        <v>504</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>59</v>
@@ -26994,7 +26997,7 @@
         <v>42736</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P161" s="8" t="s">
         <v>5</v>
@@ -27008,13 +27011,13 @@
         <v>445</v>
       </c>
       <c r="C162" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D162" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="D162" s="22" t="s">
-        <v>506</v>
-      </c>
       <c r="E162" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>81</v>
@@ -27023,7 +27026,7 @@
         <v>42736</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P162" s="8" t="s">
         <v>5</v>
@@ -27043,13 +27046,13 @@
         <v>43</v>
       </c>
       <c r="C163" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D163" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="D163" s="22" t="s">
-        <v>510</v>
-      </c>
       <c r="E163" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>4</v>
@@ -27058,7 +27061,7 @@
         <v>42737</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Q163" s="8" t="s">
         <v>5</v>
@@ -27075,13 +27078,13 @@
         <v>418</v>
       </c>
       <c r="C164" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D164" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="E164" s="13" t="s">
         <v>514</v>
-      </c>
-      <c r="D164" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="E164" s="13" t="s">
-        <v>515</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>4</v>
@@ -27104,13 +27107,13 @@
         <v>53</v>
       </c>
       <c r="C165" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D165" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="E165" s="13" t="s">
         <v>518</v>
-      </c>
-      <c r="D165" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="E165" s="13" t="s">
-        <v>519</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>32</v>
@@ -27119,7 +27122,7 @@
         <v>42740</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N165" s="8" t="s">
         <v>5</v>
@@ -27139,13 +27142,13 @@
         <v>152</v>
       </c>
       <c r="C166" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D166" s="22" t="s">
         <v>520</v>
       </c>
-      <c r="D166" s="22" t="s">
+      <c r="E166" s="13" t="s">
         <v>521</v>
-      </c>
-      <c r="E166" s="13" t="s">
-        <v>522</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>59</v>
@@ -27171,13 +27174,13 @@
         <v>343</v>
       </c>
       <c r="C167" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D167" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="D167" s="22" t="s">
+      <c r="E167" s="13" t="s">
         <v>524</v>
-      </c>
-      <c r="E167" s="13" t="s">
-        <v>525</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>81</v>
@@ -27197,13 +27200,13 @@
         <v>139</v>
       </c>
       <c r="C168" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D168" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="D168" s="22" t="s">
-        <v>529</v>
-      </c>
       <c r="E168" s="17" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>81</v>
@@ -27212,7 +27215,7 @@
         <v>42741</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Q168" s="8" t="s">
         <v>5</v>
@@ -27229,13 +27232,13 @@
         <v>279</v>
       </c>
       <c r="C169" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D169" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="E169" s="13" t="s">
         <v>535</v>
-      </c>
-      <c r="D169" s="22" t="s">
-        <v>534</v>
-      </c>
-      <c r="E169" s="13" t="s">
-        <v>536</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>81</v>
@@ -27264,13 +27267,13 @@
         <v>120</v>
       </c>
       <c r="C170" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D170" s="22" t="s">
         <v>537</v>
       </c>
-      <c r="D170" s="22" t="s">
+      <c r="E170" s="13" t="s">
         <v>538</v>
-      </c>
-      <c r="E170" s="13" t="s">
-        <v>539</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>32</v>
@@ -27293,13 +27296,13 @@
         <v>62</v>
       </c>
       <c r="C171" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D171" s="23" t="s">
+        <v>539</v>
+      </c>
+      <c r="E171" s="17" t="s">
         <v>541</v>
-      </c>
-      <c r="D171" s="23" t="s">
-        <v>540</v>
-      </c>
-      <c r="E171" s="17" t="s">
-        <v>542</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>69</v>
@@ -27308,7 +27311,7 @@
         <v>42741</v>
       </c>
       <c r="J171" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N171" s="8" t="s">
         <v>5</v>
@@ -27325,13 +27328,13 @@
         <v>63</v>
       </c>
       <c r="C172" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D172" s="22" t="s">
         <v>543</v>
       </c>
-      <c r="D172" s="22" t="s">
+      <c r="E172" s="13" t="s">
         <v>544</v>
-      </c>
-      <c r="E172" s="13" t="s">
-        <v>545</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>32</v>
@@ -27340,7 +27343,7 @@
         <v>42741</v>
       </c>
       <c r="J172" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N172" s="8" t="s">
         <v>5</v>
@@ -27357,13 +27360,13 @@
         <v>64</v>
       </c>
       <c r="C173" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D173" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="D173" s="22" t="s">
+      <c r="E173" s="12" t="s">
         <v>547</v>
-      </c>
-      <c r="E173" s="12" t="s">
-        <v>548</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>32</v>
@@ -27386,13 +27389,13 @@
         <v>264</v>
       </c>
       <c r="C174" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D174" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="E174" s="13" t="s">
         <v>549</v>
-      </c>
-      <c r="D174" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="E174" s="13" t="s">
-        <v>550</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>81</v>
@@ -27412,10 +27415,10 @@
         <v>47</v>
       </c>
       <c r="D175" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="E175" s="13" t="s">
         <v>552</v>
-      </c>
-      <c r="E175" s="13" t="s">
-        <v>553</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>32</v>
@@ -27456,13 +27459,13 @@
         <v>23</v>
       </c>
       <c r="C176" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D176" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="E176" s="13" t="s">
         <v>558</v>
-      </c>
-      <c r="D176" s="21" t="s">
-        <v>554</v>
-      </c>
-      <c r="E176" s="13" t="s">
-        <v>559</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>32</v>
@@ -27471,7 +27474,7 @@
         <v>42742</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P176" s="8" t="s">
         <v>5</v>
@@ -27491,13 +27494,13 @@
         <v>95</v>
       </c>
       <c r="C177" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D177" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="E177" s="13" t="s">
         <v>561</v>
-      </c>
-      <c r="D177" s="21" t="s">
-        <v>563</v>
-      </c>
-      <c r="E177" s="13" t="s">
-        <v>562</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>81</v>
@@ -27523,13 +27526,13 @@
         <v>376</v>
       </c>
       <c r="C178" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D178" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="E178" s="13" t="s">
         <v>565</v>
-      </c>
-      <c r="D178" s="22" t="s">
-        <v>564</v>
-      </c>
-      <c r="E178" s="13" t="s">
-        <v>566</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>32</v>
@@ -27552,13 +27555,13 @@
         <v>204</v>
       </c>
       <c r="C179" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D179" s="22" t="s">
         <v>567</v>
       </c>
-      <c r="D179" s="22" t="s">
+      <c r="E179" s="13" t="s">
         <v>568</v>
-      </c>
-      <c r="E179" s="13" t="s">
-        <v>569</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>81</v>
@@ -27578,13 +27581,13 @@
         <v>461</v>
       </c>
       <c r="C180" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D180" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="E180" s="12" t="s">
         <v>573</v>
-      </c>
-      <c r="D180" s="22" t="s">
-        <v>572</v>
-      </c>
-      <c r="E180" s="12" t="s">
-        <v>574</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>4</v>
@@ -27593,7 +27596,7 @@
         <v>42743</v>
       </c>
       <c r="J180" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="V180" s="8" t="s">
         <v>5</v>
@@ -27607,13 +27610,13 @@
         <v>477</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D181" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="E181" s="13" t="s">
         <v>630</v>
-      </c>
-      <c r="E181" s="13" t="s">
-        <v>631</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>81</v>
@@ -27622,7 +27625,7 @@
         <v>42743</v>
       </c>
       <c r="J181" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="182" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
@@ -27633,13 +27636,13 @@
         <v>342</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D182" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="E182" s="13" t="s">
         <v>577</v>
-      </c>
-      <c r="E182" s="13" t="s">
-        <v>578</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>81</v>
@@ -27659,13 +27662,13 @@
         <v>151</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D183" s="22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E183" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>127</v>
@@ -27674,7 +27677,7 @@
         <v>42743</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Q183" s="8" t="s">
         <v>5</v>
@@ -27688,13 +27691,13 @@
         <v>186</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D184" s="22" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>4</v>
@@ -27703,7 +27706,7 @@
         <v>42377</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K184" s="8" t="s">
         <v>5</v>
@@ -27717,13 +27720,13 @@
         <v>49</v>
       </c>
       <c r="C185" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D185" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="E185" s="13" t="s">
         <v>596</v>
-      </c>
-      <c r="D185" s="22" t="s">
-        <v>598</v>
-      </c>
-      <c r="E185" s="13" t="s">
-        <v>597</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>32</v>
@@ -27732,7 +27735,7 @@
         <v>42377</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L185" s="8" t="s">
         <v>5</v>
@@ -27749,13 +27752,13 @@
         <v>382</v>
       </c>
       <c r="C186" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D186" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="E186" s="13" t="s">
         <v>604</v>
-      </c>
-      <c r="D186" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="E186" s="13" t="s">
-        <v>605</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>4</v>
@@ -27781,13 +27784,13 @@
         <v>398</v>
       </c>
       <c r="C187" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D187" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="E187" s="13" t="s">
         <v>606</v>
-      </c>
-      <c r="D187" s="22" t="s">
-        <v>608</v>
-      </c>
-      <c r="E187" s="13" t="s">
-        <v>607</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>4</v>
@@ -27796,7 +27799,7 @@
         <v>42743</v>
       </c>
       <c r="J187" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AH187" s="8" t="s">
         <v>5</v>
@@ -27813,13 +27816,13 @@
         <v>11</v>
       </c>
       <c r="C188" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D188" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="D188" s="22" t="s">
-        <v>611</v>
-      </c>
       <c r="E188" s="13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>81</v>
@@ -27828,7 +27831,7 @@
         <v>42744</v>
       </c>
       <c r="J188" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M188" s="8" t="s">
         <v>5</v>
@@ -27845,13 +27848,13 @@
         <v>42</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D189" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E189" s="17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>81</v>
@@ -27860,7 +27863,7 @@
         <v>42744</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M189" s="8" t="s">
         <v>5</v>
@@ -27880,13 +27883,13 @@
         <v>80</v>
       </c>
       <c r="C190" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D190" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="D190" s="22" t="s">
+      <c r="E190" s="17" t="s">
         <v>617</v>
-      </c>
-      <c r="E190" s="17" t="s">
-        <v>618</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>127</v>
@@ -27895,7 +27898,7 @@
         <v>42745</v>
       </c>
       <c r="J190" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M190" s="8" t="s">
         <v>5</v>
@@ -27912,13 +27915,13 @@
         <v>81</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D191" s="22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>220</v>
@@ -27927,7 +27930,7 @@
         <v>42745</v>
       </c>
       <c r="J191" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N191" s="8" t="s">
         <v>5</v>
@@ -27944,13 +27947,13 @@
         <v>33</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D192" s="22" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E192" s="13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>32</v>
@@ -27959,7 +27962,7 @@
         <v>42745</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="N192" s="8" t="s">
         <v>5</v>
@@ -27976,13 +27979,13 @@
         <v>54</v>
       </c>
       <c r="C193" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="D193" s="22" t="s">
         <v>627</v>
       </c>
-      <c r="D193" s="22" t="s">
+      <c r="E193" s="13" t="s">
         <v>628</v>
-      </c>
-      <c r="E193" s="13" t="s">
-        <v>629</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>69</v>
@@ -27991,7 +27994,7 @@
         <v>42745</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="N193" s="8" t="s">
         <v>5</v>
@@ -28005,13 +28008,13 @@
         <v>59</v>
       </c>
       <c r="C194" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D194" s="22" t="s">
         <v>632</v>
       </c>
-      <c r="D194" s="22" t="s">
+      <c r="E194" s="12" t="s">
         <v>633</v>
-      </c>
-      <c r="E194" s="12" t="s">
-        <v>634</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>32</v>
@@ -28031,13 +28034,13 @@
         <v>73</v>
       </c>
       <c r="C195" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D195" s="22" t="s">
         <v>635</v>
       </c>
-      <c r="D195" s="22" t="s">
+      <c r="E195" s="13" t="s">
         <v>636</v>
-      </c>
-      <c r="E195" s="13" t="s">
-        <v>637</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>32</v>
@@ -28046,7 +28049,7 @@
         <v>42745</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="N195" s="8" t="s">
         <v>5</v>
@@ -28060,13 +28063,13 @@
         <v>289</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D196" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="E196" s="13" t="s">
         <v>648</v>
-      </c>
-      <c r="E196" s="13" t="s">
-        <v>649</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>81</v>
@@ -28075,7 +28078,7 @@
         <v>42746</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N196" s="8" t="s">
         <v>5</v>
@@ -28092,13 +28095,13 @@
         <v>228</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D197" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="E197" s="13" t="s">
         <v>654</v>
-      </c>
-      <c r="E197" s="13" t="s">
-        <v>655</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>69</v>
@@ -28121,13 +28124,13 @@
         <v>209</v>
       </c>
       <c r="C198" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D198" s="22" t="s">
         <v>656</v>
       </c>
-      <c r="D198" s="22" t="s">
+      <c r="E198" s="13" t="s">
         <v>657</v>
-      </c>
-      <c r="E198" s="13" t="s">
-        <v>658</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>220</v>
@@ -28136,7 +28139,7 @@
         <v>42746</v>
       </c>
       <c r="J198" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M198" s="8" t="s">
         <v>5</v>
@@ -28153,13 +28156,13 @@
         <v>448</v>
       </c>
       <c r="C199" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D199" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="E199" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="D199" s="22" t="s">
-        <v>661</v>
-      </c>
-      <c r="E199" s="13" t="s">
-        <v>663</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>69</v>
@@ -28182,13 +28185,13 @@
         <v>455</v>
       </c>
       <c r="C200" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D200" s="22" t="s">
+        <v>665</v>
+      </c>
+      <c r="E200" s="13" t="s">
         <v>664</v>
-      </c>
-      <c r="D200" s="22" t="s">
-        <v>666</v>
-      </c>
-      <c r="E200" s="13" t="s">
-        <v>665</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>59</v>
@@ -28211,13 +28214,13 @@
         <v>229</v>
       </c>
       <c r="C201" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D201" s="22" t="s">
         <v>667</v>
       </c>
-      <c r="D201" s="22" t="s">
-        <v>668</v>
-      </c>
       <c r="E201" s="13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>303</v>
@@ -28226,7 +28229,7 @@
         <v>42747</v>
       </c>
       <c r="J201" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N201" s="8" t="s">
         <v>5</v>
@@ -28240,13 +28243,13 @@
         <v>147</v>
       </c>
       <c r="C202" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D202" s="22" t="s">
+        <v>670</v>
+      </c>
+      <c r="E202" s="13" t="s">
         <v>669</v>
-      </c>
-      <c r="D202" s="22" t="s">
-        <v>671</v>
-      </c>
-      <c r="E202" s="13" t="s">
-        <v>670</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>32</v>
@@ -28263,19 +28266,19 @@
         <v>148</v>
       </c>
       <c r="C203" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="D203" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="D203" s="22" t="s">
-        <v>673</v>
-      </c>
       <c r="E203" s="13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="P203" s="8" t="s">
         <v>5</v>
@@ -28292,13 +28295,13 @@
         <v>328</v>
       </c>
       <c r="C204" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="D204" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="D204" s="22" t="s">
+      <c r="E204" s="13" t="s">
         <v>678</v>
-      </c>
-      <c r="E204" s="13" t="s">
-        <v>679</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>32</v>
@@ -28318,13 +28321,13 @@
         <v>143</v>
       </c>
       <c r="C205" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D205" s="22" t="s">
         <v>680</v>
       </c>
-      <c r="D205" s="22" t="s">
-        <v>681</v>
-      </c>
       <c r="E205" s="13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>4</v>
@@ -28341,13 +28344,13 @@
         <v>369</v>
       </c>
       <c r="C206" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D206" s="22" t="s">
         <v>682</v>
       </c>
-      <c r="D206" s="22" t="s">
+      <c r="E206" s="13" t="s">
         <v>683</v>
-      </c>
-      <c r="E206" s="13" t="s">
-        <v>684</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>32</v>
@@ -28373,13 +28376,13 @@
         <v>400</v>
       </c>
       <c r="C207" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D207" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="D207" s="22" t="s">
+      <c r="E207" s="17" t="s">
         <v>686</v>
-      </c>
-      <c r="E207" s="17" t="s">
-        <v>687</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>69</v>
@@ -28405,13 +28408,13 @@
         <v>384</v>
       </c>
       <c r="C208" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>688</v>
+      </c>
+      <c r="E208" s="12" t="s">
         <v>690</v>
-      </c>
-      <c r="D208" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="E208" s="12" t="s">
-        <v>691</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>59</v>
@@ -28431,13 +28434,13 @@
         <v>173</v>
       </c>
       <c r="C209" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="E209" s="13" t="s">
         <v>693</v>
-      </c>
-      <c r="D209" s="22" t="s">
-        <v>695</v>
-      </c>
-      <c r="E209" s="13" t="s">
-        <v>694</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>81</v>
@@ -28446,7 +28449,7 @@
         <v>42748</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="S209" s="8" t="s">
         <v>5</v>
@@ -28469,13 +28472,13 @@
         <v>284</v>
       </c>
       <c r="C210" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="D210" s="22" t="s">
         <v>698</v>
       </c>
-      <c r="D210" s="22" t="s">
+      <c r="E210" s="13" t="s">
         <v>699</v>
-      </c>
-      <c r="E210" s="13" t="s">
-        <v>700</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>81</v>
@@ -28484,7 +28487,7 @@
         <v>42748</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AH210" s="8" t="s">
         <v>5</v>
@@ -28498,13 +28501,13 @@
         <v>377</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D211" s="22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E211" s="13" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>81</v>
@@ -28513,7 +28516,7 @@
         <v>42749</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AE211" s="8" t="s">
         <v>5</v>
@@ -28527,13 +28530,13 @@
         <v>31</v>
       </c>
       <c r="C212" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D212" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="E212" s="13" t="s">
         <v>708</v>
-      </c>
-      <c r="D212" s="22" t="s">
-        <v>710</v>
-      </c>
-      <c r="E212" s="13" t="s">
-        <v>709</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>69</v>
@@ -28559,13 +28562,13 @@
         <v>386</v>
       </c>
       <c r="C213" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D213" s="22" t="s">
         <v>711</v>
       </c>
-      <c r="D213" s="22" t="s">
+      <c r="E213" s="13" t="s">
         <v>712</v>
-      </c>
-      <c r="E213" s="13" t="s">
-        <v>713</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>81</v>
@@ -28574,7 +28577,7 @@
         <v>42750</v>
       </c>
       <c r="J213" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S213" s="8" t="s">
         <v>5</v>
@@ -28594,13 +28597,13 @@
         <v>129</v>
       </c>
       <c r="C214" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D214" s="22" t="s">
         <v>714</v>
       </c>
-      <c r="D214" s="22" t="s">
+      <c r="E214" s="13" t="s">
         <v>715</v>
-      </c>
-      <c r="E214" s="13" t="s">
-        <v>716</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>32</v>
@@ -28623,13 +28626,13 @@
         <v>199</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D215" s="22" t="s">
+        <v>728</v>
+      </c>
+      <c r="E215" s="17" t="s">
         <v>729</v>
-      </c>
-      <c r="E215" s="17" t="s">
-        <v>730</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>32</v>
@@ -28655,13 +28658,13 @@
         <v>116</v>
       </c>
       <c r="C216" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D216" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="D216" s="6" t="s">
+      <c r="E216" s="13" t="s">
         <v>732</v>
-      </c>
-      <c r="E216" s="13" t="s">
-        <v>733</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>69</v>
@@ -28708,13 +28711,13 @@
         <v>105</v>
       </c>
       <c r="C217" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D217" s="22" t="s">
         <v>735</v>
       </c>
-      <c r="D217" s="22" t="s">
+      <c r="E217" s="17" t="s">
         <v>736</v>
-      </c>
-      <c r="E217" s="17" t="s">
-        <v>737</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>81</v>
@@ -28743,13 +28746,13 @@
         <v>103</v>
       </c>
       <c r="C218" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D218" s="22" t="s">
         <v>738</v>
       </c>
-      <c r="D218" s="22" t="s">
+      <c r="E218" s="12" t="s">
         <v>739</v>
-      </c>
-      <c r="E218" s="12" t="s">
-        <v>740</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>32</v>
@@ -28775,13 +28778,13 @@
         <v>117</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D219" s="22" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>32</v>
@@ -28807,10 +28810,10 @@
         <v>66</v>
       </c>
       <c r="D220" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="E220" s="13" t="s">
         <v>745</v>
-      </c>
-      <c r="E220" s="13" t="s">
-        <v>746</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>59</v>
@@ -28830,13 +28833,13 @@
         <v>106</v>
       </c>
       <c r="C221" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D221" s="22" t="s">
         <v>747</v>
       </c>
-      <c r="D221" s="22" t="s">
+      <c r="E221" s="12" t="s">
         <v>748</v>
-      </c>
-      <c r="E221" s="12" t="s">
-        <v>749</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>32</v>
@@ -28853,13 +28856,13 @@
         <v>337</v>
       </c>
       <c r="C222" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D222" s="23" t="s">
         <v>750</v>
       </c>
-      <c r="D222" s="23" t="s">
-        <v>751</v>
-      </c>
       <c r="E222" s="13" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>32</v>
@@ -28885,13 +28888,13 @@
         <v>222</v>
       </c>
       <c r="C223" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D223" s="22" t="s">
         <v>754</v>
       </c>
-      <c r="D223" s="22" t="s">
+      <c r="E223" s="13" t="s">
         <v>755</v>
-      </c>
-      <c r="E223" s="13" t="s">
-        <v>756</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>81</v>
@@ -28914,13 +28917,13 @@
         <v>250</v>
       </c>
       <c r="C224" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D224" s="13" t="s">
         <v>757</v>
       </c>
-      <c r="D224" s="13" t="s">
+      <c r="E224" s="13" t="s">
         <v>758</v>
-      </c>
-      <c r="E224" s="13" t="s">
-        <v>759</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>69</v>
@@ -28943,13 +28946,13 @@
         <v>283</v>
       </c>
       <c r="C225" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="D225" s="22" t="s">
         <v>761</v>
       </c>
-      <c r="D225" s="22" t="s">
+      <c r="E225" s="13" t="s">
         <v>762</v>
-      </c>
-      <c r="E225" s="13" t="s">
-        <v>763</v>
       </c>
       <c r="F225" s="8" t="s">
         <v>59</v>
@@ -28958,7 +28961,7 @@
         <v>42764</v>
       </c>
       <c r="J225" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M225" s="8" t="s">
         <v>5</v>
@@ -28975,10 +28978,10 @@
         <v>1</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D226" s="22" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F226" s="2"/>
       <c r="H226" t="s">
@@ -28988,7 +28991,7 @@
         <v>42771</v>
       </c>
       <c r="J226" s="8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L226" s="8" t="s">
         <v>5</v>
@@ -29002,7 +29005,7 @@
         <v>140</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>32</v>
@@ -29011,7 +29014,7 @@
         <v>42779</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AE227" s="8" t="s">
         <v>5</v>
@@ -29025,10 +29028,10 @@
         <v>5</v>
       </c>
       <c r="C228" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="E228" s="12" t="s">
         <v>778</v>
-      </c>
-      <c r="E228" s="12" t="s">
-        <v>779</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>81</v>
@@ -29045,13 +29048,13 @@
         <v>48</v>
       </c>
       <c r="C229" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D229" s="22" t="s">
         <v>785</v>
       </c>
-      <c r="D229" s="22" t="s">
+      <c r="E229" s="13" t="s">
         <v>786</v>
-      </c>
-      <c r="E229" s="13" t="s">
-        <v>787</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>81</v>
@@ -29068,10 +29071,10 @@
         <v>405</v>
       </c>
       <c r="C239" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D239" s="22" t="s">
         <v>412</v>
-      </c>
-      <c r="D239" s="22" t="s">
-        <v>413</v>
       </c>
       <c r="F239" s="22"/>
     </row>
@@ -29180,7 +29183,7 @@
         <v>71</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>105</v>
@@ -29195,13 +29198,13 @@
         <v>253</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AH1" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.35">
@@ -30883,7 +30886,7 @@
         <v>112</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>111</v>
@@ -34200,7 +34203,7 @@
       </c>
       <c r="D97" s="22"/>
       <c r="E97" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>4</v>
@@ -34735,7 +34738,7 @@
         <v>302</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G107" s="5">
         <v>42700</v>
@@ -34846,10 +34849,10 @@
         <v>307</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G109" s="5">
         <v>42701</v>
@@ -34892,13 +34895,13 @@
         <v>167</v>
       </c>
       <c r="C110" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D110" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="D110" s="22" t="s">
+      <c r="E110" s="13" t="s">
         <v>317</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>318</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>4</v>
@@ -34907,7 +34910,7 @@
         <v>42623</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
@@ -34950,13 +34953,13 @@
         <v>280</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D111" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="D111" s="22" t="s">
-        <v>321</v>
-      </c>
       <c r="E111" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>59</v>
@@ -35008,13 +35011,13 @@
         <v>366</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>81</v>
@@ -35066,13 +35069,13 @@
         <v>364</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D113" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="D113" s="22" t="s">
-        <v>329</v>
-      </c>
       <c r="E113" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>4</v>
@@ -35122,20 +35125,20 @@
         <v>249</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D114" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="E114" s="16" t="s">
         <v>332</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>333</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>5</v>
@@ -35178,13 +35181,13 @@
         <v>320</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D115" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="D115" s="22" t="s">
+      <c r="E115" s="13" t="s">
         <v>336</v>
-      </c>
-      <c r="E115" s="13" t="s">
-        <v>337</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>81</v>
@@ -35234,13 +35237,13 @@
         <v>254</v>
       </c>
       <c r="C116" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D116" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="D116" s="22" t="s">
-        <v>339</v>
-      </c>
       <c r="E116" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>81</v>
@@ -35249,7 +35252,7 @@
         <v>42709</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>5</v>
@@ -35263,7 +35266,7 @@
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
       <c r="R116" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
@@ -35292,13 +35295,13 @@
         <v>131</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>81</v>
@@ -35307,7 +35310,7 @@
         <v>42716</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
@@ -35321,7 +35324,7 @@
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
       <c r="R117" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
@@ -35350,13 +35353,13 @@
         <v>89</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>81</v>
@@ -35365,7 +35368,7 @@
         <v>42718</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
@@ -35404,13 +35407,13 @@
         <v>77</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D119" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="E119" s="13" t="s">
         <v>353</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>354</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>32</v>
@@ -35456,13 +35459,13 @@
         <v>216</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D120" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="D120" s="22" t="s">
-        <v>352</v>
-      </c>
       <c r="E120" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>32</v>
@@ -35510,16 +35513,16 @@
         <v>60</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D121" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="D121" s="22" t="s">
+      <c r="E121" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="E121" s="13" t="s">
+      <c r="F121" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="G121" s="5">
         <v>42719</v>
@@ -35564,13 +35567,13 @@
         <v>17</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D122" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="E122" s="13" t="s">
         <v>362</v>
-      </c>
-      <c r="E122" s="13" t="s">
-        <v>363</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>4</v>
@@ -35579,7 +35582,7 @@
         <v>42723</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
@@ -35620,13 +35623,13 @@
         <v>79</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D123" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>303</v>
@@ -35635,13 +35638,13 @@
         <v>42723</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -35661,7 +35664,7 @@
       <c r="AB123" s="2"/>
       <c r="AC123" s="2"/>
       <c r="AD123" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AE123" s="2"/>
       <c r="AF123" s="2"/>
@@ -35676,13 +35679,13 @@
         <v>357</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D124" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="E124" s="13" t="s">
         <v>368</v>
-      </c>
-      <c r="E124" s="13" t="s">
-        <v>369</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>81</v>
@@ -35732,13 +35735,13 @@
         <v>346</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D125" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="E125" s="13" t="s">
         <v>373</v>
-      </c>
-      <c r="E125" s="13" t="s">
-        <v>374</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>32</v>
@@ -35790,13 +35793,13 @@
         <v>288</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D126" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>303</v>
@@ -35848,13 +35851,13 @@
         <v>392</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="E127" s="13" t="s">
         <v>378</v>
-      </c>
-      <c r="D127" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="E127" s="13" t="s">
-        <v>379</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>69</v>
@@ -35863,7 +35866,7 @@
         <v>42724</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
@@ -35902,13 +35905,13 @@
         <v>153</v>
       </c>
       <c r="C128" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="E128" s="13" t="s">
         <v>381</v>
-      </c>
-      <c r="D128" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="E128" s="13" t="s">
-        <v>382</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>32</v>
@@ -35917,7 +35920,7 @@
         <v>42724</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
@@ -35958,13 +35961,13 @@
         <v>274</v>
       </c>
       <c r="C129" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D129" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="D129" s="22" t="s">
+      <c r="E129" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="E129" s="13" t="s">
-        <v>387</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>59</v>
@@ -35973,7 +35976,7 @@
         <v>42724</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
@@ -36014,13 +36017,13 @@
         <v>275</v>
       </c>
       <c r="C130" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D130" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="D130" s="22" t="s">
-        <v>389</v>
-      </c>
       <c r="E130" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>69</v>
@@ -36070,13 +36073,13 @@
         <v>475</v>
       </c>
       <c r="C131" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D131" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="D131" s="22" t="s">
+      <c r="E131" s="13" t="s">
         <v>393</v>
-      </c>
-      <c r="E131" s="13" t="s">
-        <v>394</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>81</v>
@@ -36126,20 +36129,20 @@
         <v>50</v>
       </c>
       <c r="C132" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D132" s="22" t="s">
         <v>397</v>
-      </c>
-      <c r="D132" s="22" t="s">
-        <v>398</v>
       </c>
       <c r="E132" s="13"/>
       <c r="F132" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G132" s="5">
         <v>42725</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
@@ -36178,13 +36181,13 @@
         <v>242</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="E133" s="13" t="s">
         <v>399</v>
-      </c>
-      <c r="D133" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="E133" s="13" t="s">
-        <v>400</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>69</v>
@@ -36193,7 +36196,7 @@
         <v>42725</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I133" s="2"/>
       <c r="J133" s="2" t="s">
@@ -36234,22 +36237,22 @@
         <v>438</v>
       </c>
       <c r="C134" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D134" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="D134" s="22" t="s">
-        <v>404</v>
-      </c>
       <c r="E134" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G134" s="5">
         <v>42725</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
@@ -36288,13 +36291,13 @@
         <v>292</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E135" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>81</v>
@@ -36303,7 +36306,7 @@
         <v>42726</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
@@ -36344,13 +36347,13 @@
         <v>409</v>
       </c>
       <c r="C136" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="E136" s="13" t="s">
         <v>409</v>
-      </c>
-      <c r="D136" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="E136" s="13" t="s">
-        <v>410</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>59</v>
@@ -36398,13 +36401,13 @@
         <v>401</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="E137" s="13" t="s">
         <v>414</v>
-      </c>
-      <c r="D137" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="E137" s="13" t="s">
-        <v>415</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>127</v>
@@ -36452,10 +36455,10 @@
         <v>293</v>
       </c>
       <c r="C138" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D138" s="22" t="s">
         <v>417</v>
-      </c>
-      <c r="D138" s="22" t="s">
-        <v>418</v>
       </c>
       <c r="E138" s="13"/>
       <c r="F138" s="2" t="s">
@@ -36504,13 +36507,13 @@
         <v>294</v>
       </c>
       <c r="C139" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D139" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="D139" s="22" t="s">
+      <c r="E139" s="13" t="s">
         <v>420</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>421</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>81</v>
@@ -36558,13 +36561,13 @@
         <v>464</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>81</v>
@@ -36615,16 +36618,16 @@
         <v>46</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D141" s="22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>81</v>
@@ -36672,10 +36675,10 @@
         <v>412</v>
       </c>
       <c r="C142" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D142" s="22" t="s">
         <v>437</v>
-      </c>
-      <c r="D142" s="22" t="s">
-        <v>438</v>
       </c>
       <c r="E142" s="13"/>
       <c r="F142" s="2" t="s">
@@ -36720,13 +36723,13 @@
         <v>415</v>
       </c>
       <c r="C143" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D143" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="D143" s="22" t="s">
+      <c r="E143" s="13" t="s">
         <v>441</v>
-      </c>
-      <c r="E143" s="13" t="s">
-        <v>442</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>32</v>
@@ -36735,7 +36738,7 @@
         <v>42728</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
@@ -36772,16 +36775,16 @@
         <v>437</v>
       </c>
       <c r="C144" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="E144" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="D144" s="22" t="s">
-        <v>556</v>
-      </c>
-      <c r="E144" s="13" t="s">
-        <v>447</v>
-      </c>
       <c r="F144" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G144" s="5">
         <v>42728</v>
@@ -36832,13 +36835,13 @@
         <v>300</v>
       </c>
       <c r="C145" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="E145" s="13" t="s">
         <v>448</v>
-      </c>
-      <c r="D145" s="22" t="s">
-        <v>450</v>
-      </c>
-      <c r="E145" s="13" t="s">
-        <v>449</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>81</v>
@@ -36847,7 +36850,7 @@
         <v>42731</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
@@ -36890,13 +36893,13 @@
         <v>354</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D146" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>81</v>
@@ -36948,13 +36951,13 @@
         <v>406</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D147" s="22" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>81</v>
@@ -37002,13 +37005,13 @@
         <v>434</v>
       </c>
       <c r="C148" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D148" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="E148" s="13" t="s">
         <v>458</v>
-      </c>
-      <c r="D148" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="E148" s="13" t="s">
-        <v>459</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>69</v>
@@ -37054,13 +37057,13 @@
         <v>15</v>
       </c>
       <c r="C149" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D149" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="D149" s="22" t="s">
+      <c r="E149" s="13" t="s">
         <v>463</v>
-      </c>
-      <c r="E149" s="13" t="s">
-        <v>464</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>69</v>
@@ -37069,7 +37072,7 @@
         <v>42732</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
@@ -37106,16 +37109,16 @@
         <v>18</v>
       </c>
       <c r="C150" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="D150" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="E150" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="G150" s="5">
         <v>42733</v>
@@ -37158,13 +37161,13 @@
         <v>16</v>
       </c>
       <c r="C151" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D151" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="D151" s="22" t="s">
+      <c r="E151" s="13" t="s">
         <v>471</v>
-      </c>
-      <c r="E151" s="13" t="s">
-        <v>472</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>69</v>
@@ -37173,7 +37176,7 @@
         <v>42733</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
@@ -37214,13 +37217,13 @@
         <v>259</v>
       </c>
       <c r="C152" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D152" s="22" t="s">
         <v>473</v>
       </c>
-      <c r="D152" s="22" t="s">
+      <c r="E152" s="13" t="s">
         <v>474</v>
-      </c>
-      <c r="E152" s="13" t="s">
-        <v>475</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>4</v>
@@ -37274,13 +37277,13 @@
         <v>454</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D153" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="E153" s="13" t="s">
         <v>479</v>
-      </c>
-      <c r="E153" s="13" t="s">
-        <v>480</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>81</v>
@@ -37326,13 +37329,13 @@
         <v>453</v>
       </c>
       <c r="C154" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D154" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="D154" s="22" t="s">
+      <c r="E154" s="13" t="s">
         <v>482</v>
-      </c>
-      <c r="E154" s="13" t="s">
-        <v>483</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>59</v>
@@ -37341,7 +37344,7 @@
         <v>42734</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -37380,13 +37383,13 @@
         <v>462</v>
       </c>
       <c r="C155" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D155" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="D155" s="22" t="s">
-        <v>486</v>
-      </c>
       <c r="E155" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>69</v>
@@ -37432,10 +37435,10 @@
         <v>86</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E156" s="13"/>
       <c r="F156" s="2" t="s">
@@ -37484,10 +37487,10 @@
         <v>142</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E157" s="13"/>
       <c r="F157" s="2" t="s">
@@ -37540,13 +37543,13 @@
         <v>109</v>
       </c>
       <c r="C158" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D158" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="D158" s="22" t="s">
-        <v>491</v>
-      </c>
       <c r="E158" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>59</v>
@@ -37555,7 +37558,7 @@
         <v>42736</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
@@ -37598,13 +37601,13 @@
         <v>108</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D159" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="D159" s="22" t="s">
-        <v>495</v>
-      </c>
       <c r="E159" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>32</v>
@@ -37613,7 +37616,7 @@
         <v>42736</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
@@ -37654,13 +37657,13 @@
         <v>82</v>
       </c>
       <c r="C160" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D160" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="D160" s="22" t="s">
-        <v>500</v>
-      </c>
       <c r="E160" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>69</v>
@@ -37704,13 +37707,13 @@
         <v>2</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D161" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="E161" s="13" t="s">
         <v>503</v>
-      </c>
-      <c r="E161" s="13" t="s">
-        <v>504</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>59</v>
@@ -37719,7 +37722,7 @@
         <v>42736</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -37758,13 +37761,13 @@
         <v>445</v>
       </c>
       <c r="C162" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D162" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="D162" s="22" t="s">
-        <v>506</v>
-      </c>
       <c r="E162" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>81</v>
@@ -37773,7 +37776,7 @@
         <v>42736</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
@@ -37816,13 +37819,13 @@
         <v>43</v>
       </c>
       <c r="C163" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D163" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="D163" s="22" t="s">
-        <v>510</v>
-      </c>
       <c r="E163" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>4</v>
@@ -37831,7 +37834,7 @@
         <v>42737</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
@@ -37872,13 +37875,13 @@
         <v>418</v>
       </c>
       <c r="C164" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D164" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="E164" s="13" t="s">
         <v>514</v>
-      </c>
-      <c r="D164" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="E164" s="13" t="s">
-        <v>515</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>4</v>
@@ -37926,13 +37929,13 @@
         <v>53</v>
       </c>
       <c r="C165" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D165" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="E165" s="13" t="s">
         <v>518</v>
-      </c>
-      <c r="D165" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="E165" s="13" t="s">
-        <v>519</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>32</v>
@@ -37941,7 +37944,7 @@
         <v>42740</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
@@ -37984,13 +37987,13 @@
         <v>152</v>
       </c>
       <c r="C166" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D166" s="22" t="s">
         <v>520</v>
       </c>
-      <c r="D166" s="22" t="s">
+      <c r="E166" s="13" t="s">
         <v>521</v>
-      </c>
-      <c r="E166" s="13" t="s">
-        <v>522</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>59</v>
@@ -38040,13 +38043,13 @@
         <v>343</v>
       </c>
       <c r="C167" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D167" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="D167" s="22" t="s">
+      <c r="E167" s="13" t="s">
         <v>524</v>
-      </c>
-      <c r="E167" s="13" t="s">
-        <v>525</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>81</v>
@@ -38092,13 +38095,13 @@
         <v>139</v>
       </c>
       <c r="C168" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D168" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="D168" s="22" t="s">
-        <v>529</v>
-      </c>
       <c r="E168" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>81</v>
@@ -38107,7 +38110,7 @@
         <v>42741</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
@@ -38148,13 +38151,13 @@
         <v>279</v>
       </c>
       <c r="C169" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D169" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="E169" s="13" t="s">
         <v>535</v>
-      </c>
-      <c r="D169" s="22" t="s">
-        <v>534</v>
-      </c>
-      <c r="E169" s="13" t="s">
-        <v>536</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>81</v>
@@ -38206,13 +38209,13 @@
         <v>120</v>
       </c>
       <c r="C170" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D170" s="22" t="s">
         <v>537</v>
       </c>
-      <c r="D170" s="22" t="s">
+      <c r="E170" s="13" t="s">
         <v>538</v>
-      </c>
-      <c r="E170" s="13" t="s">
-        <v>539</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>32</v>
@@ -38260,13 +38263,13 @@
         <v>62</v>
       </c>
       <c r="C171" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D171" s="23" t="s">
+        <v>539</v>
+      </c>
+      <c r="E171" s="17" t="s">
         <v>541</v>
-      </c>
-      <c r="D171" s="23" t="s">
-        <v>540</v>
-      </c>
-      <c r="E171" s="17" t="s">
-        <v>542</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>69</v>
@@ -38275,7 +38278,7 @@
         <v>42741</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
@@ -38316,13 +38319,13 @@
         <v>63</v>
       </c>
       <c r="C172" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D172" s="22" t="s">
         <v>543</v>
       </c>
-      <c r="D172" s="22" t="s">
+      <c r="E172" s="13" t="s">
         <v>544</v>
-      </c>
-      <c r="E172" s="13" t="s">
-        <v>545</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>32</v>
@@ -38331,7 +38334,7 @@
         <v>42741</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
@@ -38372,13 +38375,13 @@
         <v>64</v>
       </c>
       <c r="C173" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D173" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="D173" s="22" t="s">
+      <c r="E173" s="13" t="s">
         <v>547</v>
-      </c>
-      <c r="E173" s="13" t="s">
-        <v>548</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>32</v>
@@ -38426,13 +38429,13 @@
         <v>264</v>
       </c>
       <c r="C174" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D174" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="E174" s="13" t="s">
         <v>549</v>
-      </c>
-      <c r="D174" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="E174" s="13" t="s">
-        <v>550</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>81</v>
@@ -38479,10 +38482,10 @@
         <v>47</v>
       </c>
       <c r="D175" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="E175" s="13" t="s">
         <v>552</v>
-      </c>
-      <c r="E175" s="13" t="s">
-        <v>553</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>32</v>
@@ -38528,13 +38531,13 @@
         <v>23</v>
       </c>
       <c r="C176" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D176" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="E176" s="13" t="s">
         <v>558</v>
-      </c>
-      <c r="D176" s="21" t="s">
-        <v>554</v>
-      </c>
-      <c r="E176" s="13" t="s">
-        <v>559</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>32</v>
@@ -38543,7 +38546,7 @@
         <v>42742</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
@@ -38586,13 +38589,13 @@
         <v>95</v>
       </c>
       <c r="C177" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D177" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="E177" s="13" t="s">
         <v>561</v>
-      </c>
-      <c r="D177" s="21" t="s">
-        <v>563</v>
-      </c>
-      <c r="E177" s="13" t="s">
-        <v>562</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>81</v>
@@ -38642,13 +38645,13 @@
         <v>376</v>
       </c>
       <c r="C178" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D178" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="E178" s="13" t="s">
         <v>565</v>
-      </c>
-      <c r="D178" s="22" t="s">
-        <v>564</v>
-      </c>
-      <c r="E178" s="13" t="s">
-        <v>566</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>32</v>
@@ -38696,13 +38699,13 @@
         <v>204</v>
       </c>
       <c r="C179" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D179" s="22" t="s">
         <v>567</v>
       </c>
-      <c r="D179" s="22" t="s">
+      <c r="E179" s="13" t="s">
         <v>568</v>
-      </c>
-      <c r="E179" s="13" t="s">
-        <v>569</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>81</v>
@@ -38748,13 +38751,13 @@
         <v>461</v>
       </c>
       <c r="C180" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D180" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="E180" s="13" t="s">
         <v>573</v>
-      </c>
-      <c r="D180" s="22" t="s">
-        <v>572</v>
-      </c>
-      <c r="E180" s="13" t="s">
-        <v>574</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>4</v>
@@ -38763,7 +38766,7 @@
         <v>42743</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
@@ -38802,13 +38805,13 @@
         <v>477</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D181" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="E181" s="13" t="s">
         <v>630</v>
-      </c>
-      <c r="E181" s="13" t="s">
-        <v>631</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>81</v>
@@ -38817,7 +38820,7 @@
         <v>42743</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
@@ -38854,13 +38857,13 @@
         <v>342</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D182" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="E182" s="13" t="s">
         <v>577</v>
-      </c>
-      <c r="E182" s="13" t="s">
-        <v>578</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>81</v>
@@ -38906,13 +38909,13 @@
         <v>151</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D183" s="22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E183" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>127</v>
@@ -38921,7 +38924,7 @@
         <v>42743</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
@@ -38960,13 +38963,13 @@
         <v>186</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D184" s="22" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>4</v>
@@ -38975,7 +38978,7 @@
         <v>42377</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I184" s="2" t="s">
         <v>5</v>
@@ -39014,13 +39017,13 @@
         <v>49</v>
       </c>
       <c r="C185" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D185" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="E185" s="13" t="s">
         <v>596</v>
-      </c>
-      <c r="D185" s="22" t="s">
-        <v>598</v>
-      </c>
-      <c r="E185" s="13" t="s">
-        <v>597</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>32</v>
@@ -39029,7 +39032,7 @@
         <v>42377</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I185" s="2"/>
       <c r="J185" s="2" t="s">
@@ -39070,13 +39073,13 @@
         <v>382</v>
       </c>
       <c r="C186" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D186" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="E186" s="13" t="s">
         <v>604</v>
-      </c>
-      <c r="D186" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="E186" s="13" t="s">
-        <v>605</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>4</v>
@@ -39126,13 +39129,13 @@
         <v>398</v>
       </c>
       <c r="C187" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D187" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="E187" s="13" t="s">
         <v>606</v>
-      </c>
-      <c r="D187" s="22" t="s">
-        <v>608</v>
-      </c>
-      <c r="E187" s="13" t="s">
-        <v>607</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>4</v>
@@ -39141,7 +39144,7 @@
         <v>42743</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
@@ -39182,13 +39185,13 @@
         <v>11</v>
       </c>
       <c r="C188" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D188" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="D188" s="22" t="s">
-        <v>611</v>
-      </c>
       <c r="E188" s="13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>81</v>
@@ -39197,7 +39200,7 @@
         <v>42744</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
@@ -39238,13 +39241,13 @@
         <v>42</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D189" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E189" s="17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>81</v>
@@ -39253,7 +39256,7 @@
         <v>42744</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
@@ -39296,13 +39299,13 @@
         <v>80</v>
       </c>
       <c r="C190" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D190" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="D190" s="22" t="s">
+      <c r="E190" s="17" t="s">
         <v>617</v>
-      </c>
-      <c r="E190" s="17" t="s">
-        <v>618</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>127</v>
@@ -39311,7 +39314,7 @@
         <v>42745</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
@@ -39352,13 +39355,13 @@
         <v>81</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D191" s="22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>220</v>
@@ -39367,7 +39370,7 @@
         <v>42745</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
@@ -39408,13 +39411,13 @@
         <v>33</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D192" s="22" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E192" s="13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>32</v>
@@ -39423,7 +39426,7 @@
         <v>42745</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
@@ -39464,13 +39467,13 @@
         <v>54</v>
       </c>
       <c r="C193" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="D193" s="22" t="s">
         <v>627</v>
       </c>
-      <c r="D193" s="22" t="s">
+      <c r="E193" s="13" t="s">
         <v>628</v>
-      </c>
-      <c r="E193" s="13" t="s">
-        <v>629</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>69</v>
@@ -39479,7 +39482,7 @@
         <v>42745</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
@@ -39518,13 +39521,13 @@
         <v>59</v>
       </c>
       <c r="C194" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D194" s="22" t="s">
         <v>632</v>
       </c>
-      <c r="D194" s="22" t="s">
+      <c r="E194" s="13" t="s">
         <v>633</v>
-      </c>
-      <c r="E194" s="13" t="s">
-        <v>634</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>32</v>
@@ -39570,13 +39573,13 @@
         <v>73</v>
       </c>
       <c r="C195" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D195" s="22" t="s">
         <v>635</v>
       </c>
-      <c r="D195" s="22" t="s">
+      <c r="E195" s="13" t="s">
         <v>636</v>
-      </c>
-      <c r="E195" s="13" t="s">
-        <v>637</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>32</v>
@@ -39585,7 +39588,7 @@
         <v>42745</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
@@ -39624,13 +39627,13 @@
         <v>289</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D196" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="E196" s="13" t="s">
         <v>648</v>
-      </c>
-      <c r="E196" s="13" t="s">
-        <v>649</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>81</v>
@@ -39639,7 +39642,7 @@
         <v>42746</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
@@ -39680,13 +39683,13 @@
         <v>228</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D197" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="E197" s="13" t="s">
         <v>654</v>
-      </c>
-      <c r="E197" s="13" t="s">
-        <v>655</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>69</v>
@@ -39734,13 +39737,13 @@
         <v>209</v>
       </c>
       <c r="C198" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D198" s="22" t="s">
         <v>656</v>
       </c>
-      <c r="D198" s="22" t="s">
+      <c r="E198" s="13" t="s">
         <v>657</v>
-      </c>
-      <c r="E198" s="13" t="s">
-        <v>658</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>220</v>
@@ -39749,7 +39752,7 @@
         <v>42746</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
@@ -39790,13 +39793,13 @@
         <v>448</v>
       </c>
       <c r="C199" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D199" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="E199" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="D199" s="22" t="s">
-        <v>661</v>
-      </c>
-      <c r="E199" s="13" t="s">
-        <v>663</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>69</v>
@@ -39844,13 +39847,13 @@
         <v>455</v>
       </c>
       <c r="C200" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D200" s="22" t="s">
+        <v>665</v>
+      </c>
+      <c r="E200" s="13" t="s">
         <v>664</v>
-      </c>
-      <c r="D200" s="22" t="s">
-        <v>666</v>
-      </c>
-      <c r="E200" s="13" t="s">
-        <v>665</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>59</v>
@@ -39898,13 +39901,13 @@
         <v>229</v>
       </c>
       <c r="C201" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D201" s="22" t="s">
         <v>667</v>
       </c>
-      <c r="D201" s="22" t="s">
-        <v>668</v>
-      </c>
       <c r="E201" s="13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>303</v>
@@ -39913,7 +39916,7 @@
         <v>42747</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
@@ -39952,13 +39955,13 @@
         <v>147</v>
       </c>
       <c r="C202" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D202" s="22" t="s">
+        <v>670</v>
+      </c>
+      <c r="E202" s="13" t="s">
         <v>669</v>
-      </c>
-      <c r="D202" s="22" t="s">
-        <v>671</v>
-      </c>
-      <c r="E202" s="13" t="s">
-        <v>670</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>32</v>
@@ -40002,19 +40005,19 @@
         <v>148</v>
       </c>
       <c r="C203" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="D203" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="D203" s="22" t="s">
-        <v>673</v>
-      </c>
       <c r="E203" s="13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
@@ -40056,13 +40059,13 @@
         <v>328</v>
       </c>
       <c r="C204" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="D204" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="D204" s="22" t="s">
+      <c r="E204" s="13" t="s">
         <v>678</v>
-      </c>
-      <c r="E204" s="13" t="s">
-        <v>679</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>32</v>
@@ -40108,13 +40111,13 @@
         <v>143</v>
       </c>
       <c r="C205" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D205" s="22" t="s">
         <v>680</v>
       </c>
-      <c r="D205" s="22" t="s">
-        <v>681</v>
-      </c>
       <c r="E205" s="13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>4</v>
@@ -40158,13 +40161,13 @@
         <v>369</v>
       </c>
       <c r="C206" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D206" s="22" t="s">
         <v>682</v>
       </c>
-      <c r="D206" s="22" t="s">
+      <c r="E206" s="13" t="s">
         <v>683</v>
-      </c>
-      <c r="E206" s="13" t="s">
-        <v>684</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>32</v>
@@ -40214,13 +40217,13 @@
         <v>400</v>
       </c>
       <c r="C207" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D207" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="D207" s="22" t="s">
+      <c r="E207" s="17" t="s">
         <v>686</v>
-      </c>
-      <c r="E207" s="17" t="s">
-        <v>687</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>69</v>
@@ -40270,13 +40273,13 @@
         <v>384</v>
       </c>
       <c r="C208" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>688</v>
+      </c>
+      <c r="E208" s="13" t="s">
         <v>690</v>
-      </c>
-      <c r="D208" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="E208" s="13" t="s">
-        <v>691</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>59</v>
@@ -40322,13 +40325,13 @@
         <v>173</v>
       </c>
       <c r="C209" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="E209" s="13" t="s">
         <v>693</v>
-      </c>
-      <c r="D209" s="22" t="s">
-        <v>695</v>
-      </c>
-      <c r="E209" s="13" t="s">
-        <v>694</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>81</v>
@@ -40337,7 +40340,7 @@
         <v>42748</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
@@ -40382,13 +40385,13 @@
         <v>284</v>
       </c>
       <c r="C210" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="D210" s="22" t="s">
         <v>698</v>
       </c>
-      <c r="D210" s="22" t="s">
+      <c r="E210" s="13" t="s">
         <v>699</v>
-      </c>
-      <c r="E210" s="13" t="s">
-        <v>700</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>81</v>
@@ -40397,7 +40400,7 @@
         <v>42748</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
@@ -40436,13 +40439,13 @@
         <v>377</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D211" s="22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E211" s="13" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>81</v>
@@ -40451,7 +40454,7 @@
         <v>42749</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
@@ -40490,13 +40493,13 @@
         <v>31</v>
       </c>
       <c r="C212" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D212" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="E212" s="13" t="s">
         <v>708</v>
-      </c>
-      <c r="D212" s="22" t="s">
-        <v>710</v>
-      </c>
-      <c r="E212" s="13" t="s">
-        <v>709</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>69</v>
@@ -40544,13 +40547,13 @@
         <v>386</v>
       </c>
       <c r="C213" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D213" s="22" t="s">
         <v>711</v>
       </c>
-      <c r="D213" s="22" t="s">
+      <c r="E213" s="13" t="s">
         <v>712</v>
-      </c>
-      <c r="E213" s="13" t="s">
-        <v>713</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>81</v>
@@ -40600,13 +40603,13 @@
         <v>129</v>
       </c>
       <c r="C214" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D214" s="22" t="s">
         <v>714</v>
       </c>
-      <c r="D214" s="22" t="s">
+      <c r="E214" s="13" t="s">
         <v>715</v>
-      </c>
-      <c r="E214" s="13" t="s">
-        <v>716</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>32</v>
@@ -40654,11 +40657,11 @@
         <v>114</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D215" s="22"/>
       <c r="E215" s="13" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>32</v>
@@ -40702,7 +40705,7 @@
         <v>199</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>32</v>
@@ -40719,7 +40722,7 @@
         <v>116</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>69</v>
@@ -40736,7 +40739,7 @@
         <v>103</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D218" s="22"/>
       <c r="E218" s="12"/>
@@ -40781,7 +40784,7 @@
         <v>105</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>81</v>
@@ -40798,13 +40801,13 @@
         <v>117</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D220" s="22" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>32</v>
@@ -40854,10 +40857,10 @@
         <v>66</v>
       </c>
       <c r="D221" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="E221" s="13" t="s">
         <v>745</v>
-      </c>
-      <c r="E221" s="13" t="s">
-        <v>746</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>59</v>
@@ -40902,13 +40905,13 @@
         <v>106</v>
       </c>
       <c r="C222" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D222" s="22" t="s">
         <v>747</v>
       </c>
-      <c r="D222" s="22" t="s">
+      <c r="E222" s="12" t="s">
         <v>748</v>
-      </c>
-      <c r="E222" s="12" t="s">
-        <v>749</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>32</v>
@@ -40925,13 +40928,13 @@
         <v>337</v>
       </c>
       <c r="C223" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D223" s="23" t="s">
         <v>750</v>
       </c>
-      <c r="D223" s="23" t="s">
-        <v>751</v>
-      </c>
       <c r="E223" s="13" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>32</v>
@@ -40948,13 +40951,13 @@
         <v>222</v>
       </c>
       <c r="C224" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D224" s="22" t="s">
         <v>754</v>
       </c>
-      <c r="D224" s="22" t="s">
+      <c r="E224" s="13" t="s">
         <v>755</v>
-      </c>
-      <c r="E224" s="13" t="s">
-        <v>756</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>81</v>
@@ -40971,13 +40974,13 @@
         <v>250</v>
       </c>
       <c r="C225" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D225" s="13" t="s">
         <v>757</v>
       </c>
-      <c r="D225" s="13" t="s">
+      <c r="E225" s="13" t="s">
         <v>758</v>
-      </c>
-      <c r="E225" s="13" t="s">
-        <v>759</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>69</v>
@@ -41060,8 +41063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41081,13 +41084,13 @@
         <v>132</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="58" x14ac:dyDescent="0.35">
@@ -41108,7 +41111,7 @@
         <v>195</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="171" customHeight="1" x14ac:dyDescent="0.35">
@@ -41116,18 +41119,18 @@
         <v>256</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="145" x14ac:dyDescent="0.35">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="188.5" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>257</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>309</v>
+        <v>790</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>260</v>
@@ -41135,37 +41138,37 @@
     </row>
     <row r="7" spans="2:6" ht="116" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
@@ -41173,7 +41176,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
@@ -41221,10 +41224,10 @@
     </row>
     <row r="5" spans="1:3" ht="203" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -41232,12 +41235,12 @@
         <v>129</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>16</v>
@@ -41245,18 +41248,18 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B8" t="s">
         <v>532</v>
-      </c>
-      <c r="B8" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>726</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>727</v>
       </c>
     </row>
   </sheetData>
@@ -41283,82 +41286,82 @@
   <sheetData>
     <row r="1" spans="1:2" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -41379,10 +41382,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B1" t="s">
         <v>659</v>
-      </c>
-      <c r="B1" t="s">
-        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -41394,7 +41397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -41406,10 +41409,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
@@ -41417,39 +41420,39 @@
         <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="B3" t="s">
         <v>584</v>
-      </c>
-      <c r="B3" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>620</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>650</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>651</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode record for Shiyun.xlsx
+++ b/Leetcode record for Shiyun.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11210" windowHeight="5660" tabRatio="779" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11210" windowHeight="5660" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode Record 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3288" uniqueCount="800">
   <si>
     <t>Two Pointers</t>
   </si>
@@ -5183,12 +5183,57 @@
 poll() // remove the head
 remove(Object o)
 You can't traverse a priority queue in that order because of the underlying implementation (I think it's min-heap in Java). 
+Initial capacity is just initial, PQ's capacity can grow later, use TreeSet if you want to pollFirst() pollLast()
 for (Event e : pq)
 doesn't iterate in the priority order.
 while(!pq.isEmpty()){
   Event e = pq.poll();
 }
 This works but empties the queue.</t>
+  </si>
+  <si>
+    <t>TreeSet</t>
+  </si>
+  <si>
+    <t>TreeSet(Comparator&lt;? super E&gt; comparator)
+pollFirst()
+Retrieves and removes the first (lowest) element, or returns null if this set is empty.
+pollLast()
+Retrieves and removes the last (highest) element, or returns null if this set is empty.
+//iterate
+TreeSet&lt;E&gt; ts;
+for(E e : ts) {}</t>
+  </si>
+  <si>
+    <t>Course Schedule II</t>
+  </si>
+  <si>
+    <t>There are a total of n courses you have to take, labeled from 0 to n - 1.
+Some courses may have prerequisites, for example to take course 0 you have to first take course 1, which is expressed as a pair: [0,1]
+Given the total number of courses and a list of prerequisite pairs, return the ordering of courses you should take to finish all courses.
+There may be multiple correct orders, you just need to return one of them. If it is impossible to finish all courses, return an empty array.
+For example:
+2, [[1,0]]
+There are a total of 2 courses to take. To take course 1 you should have finished course 0. So the correct course order is [0,1]
+4, [[1,0],[2,0],[3,1],[3,2]]
+There are a total of 4 courses to take. To take course 3 you should have finished both courses 1 and 2. Both courses 1 and 2 should be taken after you finished course 0. So one correct course order is [0,1,2,3]. Another correct ordering is[0,2,1,3].</t>
+  </si>
+  <si>
+    <t>Topological Sort</t>
+  </si>
+  <si>
+    <t>If input has duplicate edges, need to handle this.
+test case: 10, [[5,8],[3,5],[1,9],[4,5],[0,2],[1,9],[7,8],[4,9]]
+This problem is equivalent to finding the topological order in a directed graph. If a cycle exists, no topological ordering exists and therefore it will be impossible to take all courses.</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>dfs, drown visited islands!</t>
+  </si>
+  <si>
+    <t>Union Find</t>
   </si>
 </sst>
 </file>
@@ -21356,12 +21401,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ239"/>
+  <dimension ref="A1:AL239"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomLeft" activeCell="A232" sqref="A232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21382,7 +21427,7 @@
     <col min="34" max="35" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -21491,8 +21536,14 @@
       <c r="AJ1" s="24" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AK1" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -21539,7 +21590,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -21594,7 +21645,7 @@
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -21639,7 +21690,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -21684,7 +21735,7 @@
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
     </row>
-    <row r="6" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -21729,7 +21780,7 @@
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -21778,7 +21829,7 @@
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -21825,7 +21876,7 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -21879,7 +21930,7 @@
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:36" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -21929,7 +21980,7 @@
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:36" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -21985,7 +22036,7 @@
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:36" ht="174" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" ht="174" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -22041,7 +22092,7 @@
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="1:36" ht="145" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" ht="145" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -22097,7 +22148,7 @@
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
     </row>
-    <row r="14" spans="1:36" ht="242.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" ht="242.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -22147,7 +22198,7 @@
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
     </row>
-    <row r="15" spans="1:36" ht="116" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" ht="116" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -22195,7 +22246,7 @@
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:36" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -28640,6 +28691,15 @@
       <c r="G215" s="9">
         <v>42752</v>
       </c>
+      <c r="H215" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I215" s="9">
+        <v>42801</v>
+      </c>
+      <c r="J215" s="8" t="s">
+        <v>318</v>
+      </c>
       <c r="P215" s="8" t="s">
         <v>5</v>
       </c>
@@ -28938,7 +28998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:31" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:38" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A225" s="8" t="s">
         <v>30</v>
       </c>
@@ -28970,7 +29030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:31" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:38" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A226" s="8" t="s">
         <v>30</v>
       </c>
@@ -28997,7 +29057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:31" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:38" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A227" s="8" t="s">
         <v>95</v>
       </c>
@@ -29020,7 +29080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:31" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:38" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A228" s="8" t="s">
         <v>46</v>
       </c>
@@ -29040,7 +29100,7 @@
         <v>42780</v>
       </c>
     </row>
-    <row r="229" spans="1:31" ht="87" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:38" ht="87" x14ac:dyDescent="0.35">
       <c r="A229" s="8" t="s">
         <v>46</v>
       </c>
@@ -29063,7 +29123,76 @@
         <v>42791</v>
       </c>
     </row>
-    <row r="239" spans="1:31" ht="174" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:38" ht="290" x14ac:dyDescent="0.35">
+      <c r="A230" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B230" s="8">
+        <v>210</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="D230" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="E230" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G230" s="9">
+        <v>42802</v>
+      </c>
+      <c r="J230" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB230" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK230" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:38" ht="29" x14ac:dyDescent="0.35">
+      <c r="A231" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B231" s="8">
+        <v>200</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E231" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G231" s="9">
+        <v>42803</v>
+      </c>
+      <c r="J231" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB231" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL231" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A232" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B232" s="8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="239" spans="1:38" ht="174" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>30</v>
       </c>
@@ -41061,10 +41190,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F11"/>
+  <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41125,7 +41254,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>257</v>
       </c>
@@ -41177,6 +41306,14 @@
       </c>
       <c r="C11" s="8" t="s">
         <v>741</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode record for Shiyun.xlsx
+++ b/Leetcode record for Shiyun.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3288" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="803">
   <si>
     <t>Two Pointers</t>
   </si>
@@ -5234,6 +5234,93 @@
   </si>
   <si>
     <t>Union Find</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surrounded Regions   </t>
+  </si>
+  <si>
+    <t>1. Change all 'O' that sticks to edge to 'A' using dfs
+2. Change inner 'O' to 'X' and 'A' back to 'O'
+3. dfs: don't evaluate the edge, before recursion must check if the grid you are going into is 'O'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>node是自己在树上走来走去，不是检查自己的儿子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+public List&lt;Integer&gt; inorderTraversal(TreeNode root) {
+ List&lt;Integer&gt; res = new LinkedList&lt;Integer&gt;();
+ if (root == null) return res;
+ Stack&lt;TreeNode&gt; stack = new Stack&lt;TreeNode&gt;();
+ TreeNode cur = root;
+ while (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cur != null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> || !stack.isEmpty()) { 
+  while (cur != null) {// Travel to the left leaf
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stack.push(cur);
+   cur = cur.left;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    
+  }   
+  cur = stack.pop(); // Backtracking to higher level node A
+  res.add(cur.val);  // Add the node to the result list
+  cur = cur.right;   // Switch to A'right branch
+ }
+ return res;
+}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -10239,6 +10326,50 @@
         <a:xfrm>
           <a:off x="6908233" y="107911900"/>
           <a:ext cx="1327717" cy="1368362"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>474152</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>82549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3771900</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>2061929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E12A0FB8-1189-4BB7-8EED-622686966A79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId146"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6144702" y="383711449"/>
+          <a:ext cx="3297748" cy="1979380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21404,9 +21535,9 @@
   <dimension ref="A1:AL239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A232" sqref="A232"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22770,7 +22901,7 @@
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
     </row>
-    <row r="27" spans="1:32" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" ht="261" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
@@ -22784,7 +22915,7 @@
         <v>93</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>100</v>
+        <v>802</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>51</v>
@@ -29184,12 +29315,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:38" ht="58" x14ac:dyDescent="0.35">
       <c r="A232" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B232" s="8">
         <v>130</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="E232" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G232" s="9">
+        <v>42804</v>
+      </c>
+    </row>
+    <row r="233" spans="1:38" ht="172.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B233" s="8">
+        <v>98</v>
       </c>
     </row>
     <row r="239" spans="1:38" ht="174" x14ac:dyDescent="0.35">
@@ -41193,7 +41344,7 @@
   <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Leetcode record for Shiyun.xlsx
+++ b/Leetcode record for Shiyun.xlsx
@@ -24,6 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Record 1'!$A$1:$AJ$229</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3334" uniqueCount="824">
   <si>
     <t>Two Pointers</t>
   </si>
@@ -4833,12 +4834,6 @@
 （null之后移动到自己的左子，往下移动）</t>
   </si>
   <si>
-    <t>Inorder/preorder/postorder traversal can use STACK to implement
-Preorder: check if curr null -&gt; curr -&gt; left -&gt; right
-Inorder: check if curr null -&gt; left -&gt; curr -&gt; right
-Postorder: check if curr null -&gt; left -&gt; right -&gt; curr</t>
-  </si>
-  <si>
     <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
   </si>
   <si>
@@ -5114,9 +5109,6 @@
   </si>
   <si>
     <t>Longest Palindromic Substring</t>
-  </si>
-  <si>
-    <t>corner case: "cbbd", "abcda"</t>
   </si>
   <si>
     <t>Corner cases:
@@ -5321,6 +5313,155 @@
  return res;
 }</t>
     </r>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>不能用BFS, 必须所有左儿子 &lt; curr, 所有右儿子&gt; curr.
+用ineorder traversal traversal，用stack的话是记住不是比儿子，是自己在树上走来走去， while有左儿子就往左，if有右儿子就往右。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Tree Upside Down </t>
+  </si>
+  <si>
+    <t>use two stacks to store left and right nodes. Create a fake head in the end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Preorder Sequence in Binary Search Tree </t>
+  </si>
+  <si>
+    <t>Zenefit</t>
+  </si>
+  <si>
+    <t>Given an array of numbers, verify whether it is the correct preorder traversal sequence of a binary search tree.
+You may assume each number in the sequence is unique.
+Follow up:
+Could you do it using only constant space complexity?</t>
+  </si>
+  <si>
+    <r>
+      <t>Given a binary tree where all the right nodes are either</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> leaf nodes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with a sibling (a left node that shares the same parent node) or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empty,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> flip it upside down and turn it into a tree where the original right nodes turned into left leaf nodes. Return the new root. 
+For example:
+    1                                                      4
+   / \                                                   / \
+  2   3          ===========&gt;           5   2
+ / \                                                        / \
+4   5                                                    3    1</t>
+    </r>
+  </si>
+  <si>
+    <t>Inorder/preorder/postorder traversal can use STACK to implement
+Preorder: check if curr null -&gt; curr -&gt; left -&gt; right
+Inorder: check if curr null -&gt; left -&gt; curr -&gt; right
+Postorder: check if curr null -&gt; left -&gt; right -&gt; curr
+    5
+   / \
+  2   8
+ / \  / \
+1  4 6  9
+pre: 5,3,1,4,8,6,9
+in: 1,3,4,5,6,8,9
+post: 1,4,3,6,9,8,5</t>
+  </si>
+  <si>
+    <t>Expedia</t>
+  </si>
+  <si>
+    <t>The basic idea is to use dynamic programming. To determine whether a substring is palindromic, determine if the first character and the last are the same, the check if the inner string is palindrome. Just be careful that when returning the result, the end index need to plus 1, because java substring method doesn't include the ending index.
+corner case: "cbbd", "abcda"</t>
+  </si>
+  <si>
+    <t>Reverse digits of an integer.
+Example1: x = 123, return 321
+Example2: x = -123, return -321
+click to show spoilers.
+Note:
+The input is assumed to be a 32-bit signed integer. Your function should return 0 when the reversed integer overflows</t>
+  </si>
+  <si>
+    <t>Reverse Integer</t>
+  </si>
+  <si>
+    <t>Remember to handle overflow.
+No need to use stack here.</t>
+  </si>
+  <si>
+    <t>1. Sort and get the arr.length/2 number
+2. moore voting algorithm</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>int R; //R children
+char[] children; //links to children, length is R
+boolean isEnd; //is end of a word, useful for determining a word, not a prefix</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>要点：
+map和doubly linked list要同时update
+node每次被access(get或者put)都要挪到list最前面
+add方法是add to head, remove是remove指定的，popTail就remove最后一个，还要有moveToHead方法用来update node</t>
+  </si>
+  <si>
+    <t>TrieNode: TrieNode[] children, boolean isEnd. 
+Map-like methods: containsKey(),  get(), put()
+Special methods: setEnd(), isEnd()</t>
+  </si>
+  <si>
+    <t>Just reverse the last half, compare the last half with the first half, consider situation 12321 and 1221</t>
+  </si>
+  <si>
+    <t>In place</t>
   </si>
 </sst>
 </file>
@@ -10336,23 +10477,84 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1149223</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3365499</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>2228850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE72026F-171C-493E-AB7E-2A41C2A86CAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId146" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2863723" y="377590050"/>
+          <a:ext cx="2216276" cy="2006600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>474152</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>82549</xdr:rowOff>
+      <xdr:colOff>2273343</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3771900</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>2061929</xdr:rowOff>
+      <xdr:colOff>4174572</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>2275964</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E12A0FB8-1189-4BB7-8EED-622686966A79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83CB4596-A9E2-4D24-9156-E2724CA858A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10361,15 +10563,59 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId146"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId147"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6144702" y="383711449"/>
-          <a:ext cx="3297748" cy="1979380"/>
+          <a:off x="7943893" y="319620900"/>
+          <a:ext cx="1901229" cy="1761614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2324100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>293278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4155524</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1990213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2379F7-2F9C-4B94-A6D6-530669469FBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId147"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7994650" y="2566578"/>
+          <a:ext cx="1831424" cy="1696935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21532,12 +21778,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL239"/>
+  <dimension ref="A1:AL249"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21614,7 +21860,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>20</v>
@@ -21668,10 +21914,10 @@
         <v>601</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="14" customHeight="1" x14ac:dyDescent="0.35">
@@ -21750,7 +21996,7 @@
         <v>42425</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -21911,7 +22157,7 @@
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="1:38" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" ht="162.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -21921,12 +22167,20 @@
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>815</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="5">
         <v>42618</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="9">
+        <v>42807</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>5</v>
@@ -22178,10 +22432,10 @@
         <v>49</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>51</v>
@@ -22237,7 +22491,7 @@
         <v>53</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>32</v>
@@ -22377,7 +22631,7 @@
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:38" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -22387,14 +22641,23 @@
       <c r="C16" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="D16" s="22" t="s">
+        <v>823</v>
+      </c>
       <c r="E16" s="13" t="s">
-        <v>63</v>
+        <v>822</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="5">
         <v>42626</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I16" s="9">
+        <v>42810</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -22519,7 +22782,7 @@
         <v>72</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>51</v>
@@ -22807,7 +23070,7 @@
         <v>87</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="2"/>
@@ -22857,7 +23120,7 @@
         <v>89</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>4</v>
@@ -22915,7 +23178,7 @@
         <v>93</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>51</v>
@@ -23524,7 +23787,7 @@
         <v>129</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>81</v>
@@ -23580,7 +23843,7 @@
         <v>137</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>81</v>
@@ -23893,7 +24156,7 @@
         <v>147</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>69</v>
@@ -24556,10 +24819,10 @@
         <v>202</v>
       </c>
       <c r="D72" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="E72" s="13" t="s">
         <v>763</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>764</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>81</v>
@@ -25180,6 +25443,15 @@
       <c r="G95" s="8" t="s">
         <v>264</v>
       </c>
+      <c r="H95" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I95" s="9">
+        <v>42807</v>
+      </c>
+      <c r="J95" s="8" t="s">
+        <v>810</v>
+      </c>
       <c r="M95" s="8" t="s">
         <v>5</v>
       </c>
@@ -25531,7 +25803,7 @@
         <v>305</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>303</v>
@@ -25546,7 +25818,7 @@
         <v>42786</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="K108" s="8" t="s">
         <v>5</v>
@@ -27388,7 +27660,7 @@
         <v>528</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>81</v>
@@ -28388,7 +28660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:35" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:35" ht="182.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="8" t="s">
         <v>46</v>
       </c>
@@ -28902,13 +29174,13 @@
         <v>105</v>
       </c>
       <c r="C217" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="D217" s="22" t="s">
         <v>734</v>
       </c>
-      <c r="D217" s="22" t="s">
+      <c r="E217" s="17" t="s">
         <v>735</v>
-      </c>
-      <c r="E217" s="17" t="s">
-        <v>736</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>81</v>
@@ -28937,13 +29209,13 @@
         <v>103</v>
       </c>
       <c r="C218" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="D218" s="22" t="s">
         <v>737</v>
       </c>
-      <c r="D218" s="22" t="s">
+      <c r="E218" s="12" t="s">
         <v>738</v>
-      </c>
-      <c r="E218" s="12" t="s">
-        <v>739</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>32</v>
@@ -28969,13 +29241,13 @@
         <v>117</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D219" s="22" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>32</v>
@@ -29001,10 +29273,10 @@
         <v>66</v>
       </c>
       <c r="D220" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="E220" s="13" t="s">
         <v>744</v>
-      </c>
-      <c r="E220" s="13" t="s">
-        <v>745</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>59</v>
@@ -29024,13 +29296,13 @@
         <v>106</v>
       </c>
       <c r="C221" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D221" s="22" t="s">
         <v>746</v>
       </c>
-      <c r="D221" s="22" t="s">
+      <c r="E221" s="12" t="s">
         <v>747</v>
-      </c>
-      <c r="E221" s="12" t="s">
-        <v>748</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>32</v>
@@ -29047,13 +29319,13 @@
         <v>337</v>
       </c>
       <c r="C222" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D222" s="23" t="s">
         <v>749</v>
       </c>
-      <c r="D222" s="23" t="s">
-        <v>750</v>
-      </c>
       <c r="E222" s="13" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>32</v>
@@ -29079,13 +29351,13 @@
         <v>222</v>
       </c>
       <c r="C223" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D223" s="22" t="s">
         <v>753</v>
       </c>
-      <c r="D223" s="22" t="s">
+      <c r="E223" s="13" t="s">
         <v>754</v>
-      </c>
-      <c r="E223" s="13" t="s">
-        <v>755</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>81</v>
@@ -29108,13 +29380,13 @@
         <v>250</v>
       </c>
       <c r="C224" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D224" s="13" t="s">
         <v>756</v>
       </c>
-      <c r="D224" s="13" t="s">
+      <c r="E224" s="13" t="s">
         <v>757</v>
-      </c>
-      <c r="E224" s="13" t="s">
-        <v>758</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>69</v>
@@ -29137,13 +29409,13 @@
         <v>283</v>
       </c>
       <c r="C225" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D225" s="22" t="s">
         <v>760</v>
       </c>
-      <c r="D225" s="22" t="s">
+      <c r="E225" s="13" t="s">
         <v>761</v>
-      </c>
-      <c r="E225" s="13" t="s">
-        <v>762</v>
       </c>
       <c r="F225" s="8" t="s">
         <v>59</v>
@@ -29169,10 +29441,10 @@
         <v>1</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D226" s="22" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F226" s="2"/>
       <c r="H226" t="s">
@@ -29182,7 +29454,7 @@
         <v>42771</v>
       </c>
       <c r="J226" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L226" s="8" t="s">
         <v>5</v>
@@ -29196,7 +29468,7 @@
         <v>140</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>32</v>
@@ -29205,13 +29477,13 @@
         <v>42779</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AE227" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:38" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:38" ht="198.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="8" t="s">
         <v>46</v>
       </c>
@@ -29219,16 +29491,19 @@
         <v>5</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="E228" s="12" t="s">
-        <v>778</v>
+        <v>776</v>
+      </c>
+      <c r="E228" s="13" t="s">
+        <v>811</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G228" s="9">
         <v>42780</v>
+      </c>
+      <c r="J228" s="8" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="229" spans="1:38" ht="87" x14ac:dyDescent="0.35">
@@ -29239,13 +29514,13 @@
         <v>48</v>
       </c>
       <c r="C229" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D229" s="22" t="s">
+        <v>783</v>
+      </c>
+      <c r="E229" s="13" t="s">
         <v>784</v>
-      </c>
-      <c r="D229" s="22" t="s">
-        <v>785</v>
-      </c>
-      <c r="E229" s="13" t="s">
-        <v>786</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>81</v>
@@ -29262,13 +29537,13 @@
         <v>210</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D230" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="E230" s="13" t="s">
         <v>794</v>
-      </c>
-      <c r="E230" s="13" t="s">
-        <v>796</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>81</v>
@@ -29294,10 +29569,10 @@
         <v>200</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>81</v>
@@ -29323,10 +29598,10 @@
         <v>130</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E232" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>81</v>
@@ -29342,21 +29617,160 @@
       <c r="B233" s="8">
         <v>98</v>
       </c>
-    </row>
-    <row r="239" spans="1:38" ht="174" x14ac:dyDescent="0.35">
-      <c r="A239" s="2" t="s">
+      <c r="C233" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="E233" s="13" t="s">
+        <v>802</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G233" s="9">
+        <v>42805</v>
+      </c>
+      <c r="J233" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="S233" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:38" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A234" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B234" s="8">
+        <v>156</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="D234" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="E234" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G234" s="9">
+        <v>42806</v>
+      </c>
+      <c r="J234" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K234" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S234" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:38" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A235" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B235" s="8">
+        <v>255</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="D235" s="22" t="s">
+        <v>807</v>
+      </c>
+      <c r="J235" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="K235" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S235" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:38" ht="145" x14ac:dyDescent="0.35">
+      <c r="A236" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B236" s="8">
+        <v>7</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D236" s="22" t="s">
+        <v>812</v>
+      </c>
+      <c r="E236" s="13" t="s">
+        <v>814</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G236" s="9">
+        <v>42807</v>
+      </c>
+      <c r="J236" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="237" spans="1:38" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A237" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B237" s="8">
+        <v>208</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="E237" s="13" t="s">
+        <v>821</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G237" s="9">
+        <v>42809</v>
+      </c>
+    </row>
+    <row r="238" spans="1:38" ht="87" x14ac:dyDescent="0.35">
+      <c r="A238" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B238" s="8">
+        <v>146</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="E238" s="13" t="s">
+        <v>820</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G238" s="9">
+        <v>42808</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A249" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B249" s="2">
         <v>405</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C249" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D239" s="22" t="s">
+      <c r="D249" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="F239" s="22"/>
+      <c r="F249" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AJ229"/>
@@ -41019,7 +41433,7 @@
         <v>103</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D218" s="22"/>
       <c r="E218" s="12"/>
@@ -41064,7 +41478,7 @@
         <v>105</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>81</v>
@@ -41073,7 +41487,7 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="220" spans="1:35" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="8" t="s">
         <v>95</v>
       </c>
@@ -41081,13 +41495,13 @@
         <v>117</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D220" s="22" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>32</v>
@@ -41137,10 +41551,10 @@
         <v>66</v>
       </c>
       <c r="D221" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="E221" s="13" t="s">
         <v>744</v>
-      </c>
-      <c r="E221" s="13" t="s">
-        <v>745</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>59</v>
@@ -41185,13 +41599,13 @@
         <v>106</v>
       </c>
       <c r="C222" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D222" s="22" t="s">
         <v>746</v>
       </c>
-      <c r="D222" s="22" t="s">
+      <c r="E222" s="12" t="s">
         <v>747</v>
-      </c>
-      <c r="E222" s="12" t="s">
-        <v>748</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>32</v>
@@ -41208,13 +41622,13 @@
         <v>337</v>
       </c>
       <c r="C223" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D223" s="23" t="s">
         <v>749</v>
       </c>
-      <c r="D223" s="23" t="s">
-        <v>750</v>
-      </c>
       <c r="E223" s="13" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>32</v>
@@ -41231,13 +41645,13 @@
         <v>222</v>
       </c>
       <c r="C224" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D224" s="22" t="s">
         <v>753</v>
       </c>
-      <c r="D224" s="22" t="s">
+      <c r="E224" s="13" t="s">
         <v>754</v>
-      </c>
-      <c r="E224" s="13" t="s">
-        <v>755</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>81</v>
@@ -41254,13 +41668,13 @@
         <v>250</v>
       </c>
       <c r="C225" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D225" s="13" t="s">
         <v>756</v>
       </c>
-      <c r="D225" s="13" t="s">
+      <c r="E225" s="13" t="s">
         <v>757</v>
-      </c>
-      <c r="E225" s="13" t="s">
-        <v>758</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>69</v>
@@ -41341,10 +41755,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F12"/>
+  <dimension ref="B1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41391,7 +41805,7 @@
         <v>195</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="171" customHeight="1" x14ac:dyDescent="0.35">
@@ -41410,7 +41824,7 @@
         <v>257</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>260</v>
@@ -41437,18 +41851,18 @@
     </row>
     <row r="9" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="203" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>696</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>733</v>
+        <v>809</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
@@ -41456,15 +41870,23 @@
         <v>12</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="145" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>818</v>
       </c>
     </row>
   </sheetData>
@@ -41477,7 +41899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -41577,7 +41999,7 @@
         <v>424</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">

--- a/Leetcode record for Shiyun.xlsx
+++ b/Leetcode record for Shiyun.xlsx
@@ -21,10 +21,9 @@
     <sheet name="Common Methods" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Record 1'!$A$1:$AJ$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Record 1'!$A$1:$AJ$238</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3334" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="837">
   <si>
     <t>Two Pointers</t>
   </si>
@@ -3616,11 +3615,6 @@
     <t>Same as above 151. But input is char[] instead of String, return type is void not String, no leading or trailing spaces, words are seperated by 1 space. Do this in place.</t>
   </si>
   <si>
-    <t>X = X ^ Y
-Y = Y ^ X
-X = X ^ Y</t>
-  </si>
-  <si>
     <t>XOR Swap</t>
   </si>
   <si>
@@ -3793,14 +3787,6 @@
   </si>
   <si>
     <t>Arrays</t>
-  </si>
-  <si>
-    <t>public static int binarySearch(int[] a,
-               int fromIndex,
-               int toIndex,
-               int key)
-Returns:
-index of the search key, if it is contained in the array within the specified range; otherwise, (-(insertion point) - 1). This guarantees that the return value will be &gt;= 0 if and only if the key is found.</t>
   </si>
   <si>
     <r>
@@ -5171,19 +5157,6 @@
     <t>sort之后，跳过重复的，注意res.add()和return的位置关系</t>
   </si>
   <si>
-    <t>add() == offer()
-poll() // remove the head
-remove(Object o)
-You can't traverse a priority queue in that order because of the underlying implementation (I think it's min-heap in Java). 
-Initial capacity is just initial, PQ's capacity can grow later, use TreeSet if you want to pollFirst() pollLast()
-for (Event e : pq)
-doesn't iterate in the priority order.
-while(!pq.isEmpty()){
-  Event e = pq.poll();
-}
-This works but empties the queue.</t>
-  </si>
-  <si>
     <t>TreeSet</t>
   </si>
   <si>
@@ -5393,7 +5366,195 @@
     </r>
   </si>
   <si>
-    <t>Inorder/preorder/postorder traversal can use STACK to implement
+    <t>Expedia</t>
+  </si>
+  <si>
+    <t>The basic idea is to use dynamic programming. To determine whether a substring is palindromic, determine if the first character and the last are the same, the check if the inner string is palindrome. Just be careful that when returning the result, the end index need to plus 1, because java substring method doesn't include the ending index.
+corner case: "cbbd", "abcda"</t>
+  </si>
+  <si>
+    <t>Reverse digits of an integer.
+Example1: x = 123, return 321
+Example2: x = -123, return -321
+click to show spoilers.
+Note:
+The input is assumed to be a 32-bit signed integer. Your function should return 0 when the reversed integer overflows</t>
+  </si>
+  <si>
+    <t>Reverse Integer</t>
+  </si>
+  <si>
+    <t>Remember to handle overflow.
+No need to use stack here.</t>
+  </si>
+  <si>
+    <t>1. Sort and get the arr.length/2 number
+2. moore voting algorithm</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>int R; //R children
+char[] children; //links to children, length is R
+boolean isEnd; //is end of a word, useful for determining a word, not a prefix</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>要点：
+map和doubly linked list要同时update
+node每次被access(get或者put)都要挪到list最前面
+add方法是add to head, remove是remove指定的，popTail就remove最后一个，还要有moveToHead方法用来update node</t>
+  </si>
+  <si>
+    <t>TrieNode: TrieNode[] children, boolean isEnd. 
+Map-like methods: containsKey(),  get(), put()
+Special methods: setEnd(), isEnd()</t>
+  </si>
+  <si>
+    <t>Just reverse the last half, compare the last half with the first half, consider situation 12321 and 1221</t>
+  </si>
+  <si>
+    <t>In place</t>
+  </si>
+  <si>
+    <r>
+      <t>用循环getMin()超时了。可以在push() 和 pop()时候加个if。push时，如果小于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min，就push min，然后push当前值，这样总是记住现在min的上一个min, pop()时遇到min就pop两下，把加多的也pop出来，同时更新当前min为上一个老min。</t>
+    </r>
+  </si>
+  <si>
+    <t>要点：count和currNode的position一致，要有假头，把prev, curr, post往后移动时候只有post是.next，另外的都是指向之前保留的node，否则会互相指来指去。。
+use a specific case and write down the procedure (print out) one by one. 
+This case, I use [1,2,3,4,5,6,7,8] and m is 2, n is 5.
+So 1 -&gt; 5, 2 -&gt; 6.
+     m - 1 -&gt; n, m -&gt; n + 1.
+so we need preNode1 and node1 for m, node2 and postNode2 for n. 
+Updating the curr, prev, post can be confusing. Write them out!</t>
+  </si>
+  <si>
+    <t>public static int binarySearch(int[] a,
+               int fromIndex, //INCLUSIVE
+               int toIndex, //EXCLUSIVE
+               int key)
+Returns:
+index of the search key, if it is contained in the array within the specified range; otherwise, (-(insertion point) - 1). This guarantees that the return value will be &gt;= 0 if and only if the key is found.</t>
+  </si>
+  <si>
+    <t>情况分类太多，这样考虑（left， mid, right)
+1. left ~ right是否单调？是则直接用Arrays.binarySearch
+2. 非单调的情况，nums[mid] 与target比，什么时候往右区间去？什么时候去左区间？（mid ~ right是否单调？）
+Beat 70% 依旧注意Arrays.binarySearch() 返回&gt;= 0</t>
+  </si>
+  <si>
+    <t>选中一个中间的点，每个点都去减去这个点取绝对值，然后加到res
+和上一题的唯一不同在于上一题是减去nums[0]
+最后发现奇数偶数都一样。。</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>相同为0，相反为1</t>
+  </si>
+  <si>
+    <t>a^b^b = a</t>
+  </si>
+  <si>
+    <t>X = X ^ Y
+Y = X ^ Y   =&gt; X = Y ^ X ^ X,   Y = X ^ Y ^ Y
+X = X ^ Y</t>
+  </si>
+  <si>
+    <t>所以0 ^ x 是 x</t>
+  </si>
+  <si>
+    <t>not sorted, 0~n, one is missing</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>CAREFULLY determine WHICH TWO NODES to compare. DFS(left.left, right.right) &amp;&amp; DFS(left.right, right.left)
+like Same Tree, check each node. Or use DFS.  FOLLOW UP, RECURSION AND ITERATION.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">add() == offer()
+poll() // remove the head
+remove(Object o)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">You can't traverse a priority queue in that order because of the underlying implementation (I think it's min-heap in Java). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Initial capacity is just initial, PQ's capacity can grow later, use TreeSet if you want to pollFirst() pollLast()
+for (Event e : pq)
+doesn't iterate in the priority order.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>while(!pq.isEmpty()){
+  Event e = pq.poll();
+}
+This works but empties the queue.</t>
+    </r>
+  </si>
+  <si>
+    <t>DFS or BFS</t>
+  </si>
+  <si>
+    <t>Inorder/preorder/postorder traversal can use STACK to implement. 递归终止条件是node == null,所以循环也是循环到null再pop。 不需要提前放一个node在stack里，（bfs要）
 Preorder: check if curr null -&gt; curr -&gt; left -&gt; right
 Inorder: check if curr null -&gt; left -&gt; curr -&gt; right
 Postorder: check if curr null -&gt; left -&gt; right -&gt; curr
@@ -5407,61 +5568,7 @@
 post: 1,4,3,6,9,8,5</t>
   </si>
   <si>
-    <t>Expedia</t>
-  </si>
-  <si>
-    <t>The basic idea is to use dynamic programming. To determine whether a substring is palindromic, determine if the first character and the last are the same, the check if the inner string is palindrome. Just be careful that when returning the result, the end index need to plus 1, because java substring method doesn't include the ending index.
-corner case: "cbbd", "abcda"</t>
-  </si>
-  <si>
-    <t>Reverse digits of an integer.
-Example1: x = 123, return 321
-Example2: x = -123, return -321
-click to show spoilers.
-Note:
-The input is assumed to be a 32-bit signed integer. Your function should return 0 when the reversed integer overflows</t>
-  </si>
-  <si>
-    <t>Reverse Integer</t>
-  </si>
-  <si>
-    <t>Remember to handle overflow.
-No need to use stack here.</t>
-  </si>
-  <si>
-    <t>1. Sort and get the arr.length/2 number
-2. moore voting algorithm</t>
-  </si>
-  <si>
-    <t>Implement Trie (Prefix Tree)</t>
-  </si>
-  <si>
-    <t>Trie</t>
-  </si>
-  <si>
-    <t>int R; //R children
-char[] children; //links to children, length is R
-boolean isEnd; //is end of a word, useful for determining a word, not a prefix</t>
-  </si>
-  <si>
-    <t>LRU Cache</t>
-  </si>
-  <si>
-    <t>要点：
-map和doubly linked list要同时update
-node每次被access(get或者put)都要挪到list最前面
-add方法是add to head, remove是remove指定的，popTail就remove最后一个，还要有moveToHead方法用来update node</t>
-  </si>
-  <si>
-    <t>TrieNode: TrieNode[] children, boolean isEnd. 
-Map-like methods: containsKey(),  get(), put()
-Special methods: setEnd(), isEnd()</t>
-  </si>
-  <si>
-    <t>Just reverse the last half, compare the last half with the first half, consider situation 12321 and 1221</t>
-  </si>
-  <si>
-    <t>In place</t>
+    <t>递归是以遇到null为结束，因此循环也是循环到null再pop stack。 不需要提前往stack push因为外层循环条件是!stack.isEmpty()||root != null</t>
   </si>
 </sst>
 </file>
@@ -21781,9 +21888,9 @@
   <dimension ref="A1:AL249"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21821,16 +21928,16 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>280</v>
@@ -21860,7 +21967,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>20</v>
@@ -21890,7 +21997,7 @@
         <v>71</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>105</v>
@@ -21911,13 +22018,13 @@
         <v>452</v>
       </c>
       <c r="AJ1" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="14" customHeight="1" x14ac:dyDescent="0.35">
@@ -21996,7 +22103,7 @@
         <v>42425</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -22168,7 +22275,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
@@ -22432,10 +22539,10 @@
         <v>49</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>51</v>
@@ -22491,7 +22598,7 @@
         <v>53</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>32</v>
@@ -22642,10 +22749,10 @@
         <v>62</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>59</v>
@@ -22691,13 +22798,13 @@
         <v>114</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G17" s="9">
         <v>42626</v>
@@ -22782,7 +22889,7 @@
         <v>72</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>51</v>
@@ -23070,7 +23177,7 @@
         <v>87</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="2"/>
@@ -23120,7 +23227,7 @@
         <v>89</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>4</v>
@@ -23178,7 +23285,7 @@
         <v>93</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>51</v>
@@ -23273,12 +23380,20 @@
       <c r="D29" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="13" t="s">
+        <v>836</v>
+      </c>
       <c r="F29" s="2" t="s">
         <v>99</v>
       </c>
       <c r="G29" s="5">
         <v>42634</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="9">
+        <v>42830</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -23513,7 +23628,7 @@
         <v>113</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>115</v>
+        <v>832</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>114</v>
@@ -23523,6 +23638,9 @@
       </c>
       <c r="G34" s="5">
         <v>42636</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -23564,6 +23682,9 @@
       <c r="C35" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="D35" s="22" t="s">
+        <v>834</v>
+      </c>
       <c r="E35" s="13" t="s">
         <v>119</v>
       </c>
@@ -23572,6 +23693,12 @@
       </c>
       <c r="G35" s="5">
         <v>42636</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="9">
+        <v>42830</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -23787,7 +23914,7 @@
         <v>129</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>81</v>
@@ -23843,7 +23970,7 @@
         <v>137</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>81</v>
@@ -24156,7 +24283,7 @@
         <v>147</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>69</v>
@@ -24819,10 +24946,10 @@
         <v>202</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>81</v>
@@ -24871,7 +24998,7 @@
     </row>
     <row r="74" spans="1:31" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="B74" s="2">
         <v>155</v>
@@ -24883,13 +25010,19 @@
         <v>206</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>207</v>
+        <v>820</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G74" s="9">
         <v>42661</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I74" s="9">
+        <v>42813</v>
       </c>
       <c r="AC74" s="8" t="s">
         <v>5</v>
@@ -25183,6 +25316,12 @@
       <c r="G85" s="9">
         <v>42669</v>
       </c>
+      <c r="H85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I85" s="9">
+        <v>42446</v>
+      </c>
       <c r="Z85" s="8" t="s">
         <v>5</v>
       </c>
@@ -25290,7 +25429,7 @@
     </row>
     <row r="90" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B90" s="2">
         <v>268</v>
@@ -25299,7 +25438,7 @@
         <v>244</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>249</v>
+        <v>830</v>
       </c>
       <c r="E90" s="13" t="s">
         <v>247</v>
@@ -25309,6 +25448,12 @@
       </c>
       <c r="G90" s="9">
         <v>42672</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I90" s="9">
+        <v>42827</v>
       </c>
       <c r="N90" s="8" t="s">
         <v>5</v>
@@ -25450,7 +25595,7 @@
         <v>42807</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="M95" s="8" t="s">
         <v>5</v>
@@ -25493,7 +25638,7 @@
         <v>269</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>4</v>
@@ -25575,7 +25720,7 @@
       </c>
     </row>
     <row r="101" spans="1:32" ht="214.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="10" t="s">
         <v>250</v>
       </c>
       <c r="B101" s="2">
@@ -25588,13 +25733,19 @@
         <v>278</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>279</v>
+        <v>821</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G101" s="9">
         <v>42687</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I101" s="9">
+        <v>42813</v>
       </c>
       <c r="P101" s="8" t="s">
         <v>5</v>
@@ -25803,7 +25954,7 @@
         <v>305</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>303</v>
@@ -25818,7 +25969,7 @@
         <v>42786</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K108" s="8" t="s">
         <v>5</v>
@@ -27268,7 +27419,7 @@
         <v>485</v>
       </c>
       <c r="E155" s="13" t="s">
-        <v>483</v>
+        <v>824</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>69</v>
@@ -27660,7 +27811,7 @@
         <v>528</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>81</v>
@@ -28067,10 +28218,10 @@
         <v>575</v>
       </c>
       <c r="D181" s="22" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E181" s="13" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>81</v>
@@ -28151,7 +28302,7 @@
         <v>590</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>4</v>
@@ -28174,13 +28325,13 @@
         <v>49</v>
       </c>
       <c r="C185" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D185" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="E185" s="13" t="s">
         <v>595</v>
-      </c>
-      <c r="D185" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="E185" s="13" t="s">
-        <v>596</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>32</v>
@@ -28189,7 +28340,7 @@
         <v>42377</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L185" s="8" t="s">
         <v>5</v>
@@ -28206,13 +28357,13 @@
         <v>382</v>
       </c>
       <c r="C186" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D186" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="E186" s="13" t="s">
         <v>603</v>
-      </c>
-      <c r="D186" s="22" t="s">
-        <v>599</v>
-      </c>
-      <c r="E186" s="13" t="s">
-        <v>604</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>4</v>
@@ -28238,13 +28389,13 @@
         <v>398</v>
       </c>
       <c r="C187" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D187" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="E187" s="13" t="s">
         <v>605</v>
-      </c>
-      <c r="D187" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="E187" s="13" t="s">
-        <v>606</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>4</v>
@@ -28270,13 +28421,13 @@
         <v>11</v>
       </c>
       <c r="C188" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D188" s="22" t="s">
         <v>609</v>
       </c>
-      <c r="D188" s="22" t="s">
-        <v>610</v>
-      </c>
       <c r="E188" s="13" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>81</v>
@@ -28302,13 +28453,13 @@
         <v>42</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D189" s="22" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E189" s="17" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>81</v>
@@ -28317,7 +28468,7 @@
         <v>42744</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M189" s="8" t="s">
         <v>5</v>
@@ -28337,13 +28488,13 @@
         <v>80</v>
       </c>
       <c r="C190" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D190" s="22" t="s">
         <v>615</v>
       </c>
-      <c r="D190" s="22" t="s">
+      <c r="E190" s="17" t="s">
         <v>616</v>
-      </c>
-      <c r="E190" s="17" t="s">
-        <v>617</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>127</v>
@@ -28363,19 +28514,19 @@
     </row>
     <row r="191" spans="1:36" ht="206.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="8" t="s">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="B191" s="8">
         <v>81</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D191" s="22" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>220</v>
@@ -28395,19 +28546,19 @@
     </row>
     <row r="192" spans="1:36" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A192" s="8" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="B192" s="8">
         <v>33</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D192" s="22" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E192" s="13" t="s">
-        <v>622</v>
+        <v>823</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>32</v>
@@ -28416,7 +28567,7 @@
         <v>42745</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="N192" s="8" t="s">
         <v>5</v>
@@ -28433,13 +28584,13 @@
         <v>54</v>
       </c>
       <c r="C193" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D193" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="E193" s="13" t="s">
         <v>626</v>
-      </c>
-      <c r="D193" s="22" t="s">
-        <v>627</v>
-      </c>
-      <c r="E193" s="13" t="s">
-        <v>628</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>69</v>
@@ -28448,7 +28599,7 @@
         <v>42745</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="N193" s="8" t="s">
         <v>5</v>
@@ -28462,13 +28613,13 @@
         <v>59</v>
       </c>
       <c r="C194" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D194" s="22" t="s">
+        <v>630</v>
+      </c>
+      <c r="E194" s="12" t="s">
         <v>631</v>
-      </c>
-      <c r="D194" s="22" t="s">
-        <v>632</v>
-      </c>
-      <c r="E194" s="12" t="s">
-        <v>633</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>32</v>
@@ -28488,13 +28639,13 @@
         <v>73</v>
       </c>
       <c r="C195" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D195" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="E195" s="13" t="s">
         <v>634</v>
-      </c>
-      <c r="D195" s="22" t="s">
-        <v>635</v>
-      </c>
-      <c r="E195" s="13" t="s">
-        <v>636</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>32</v>
@@ -28503,7 +28654,7 @@
         <v>42745</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="N195" s="8" t="s">
         <v>5</v>
@@ -28517,13 +28668,13 @@
         <v>289</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D196" s="22" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E196" s="13" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>81</v>
@@ -28532,7 +28683,7 @@
         <v>42746</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="N196" s="8" t="s">
         <v>5</v>
@@ -28549,13 +28700,13 @@
         <v>228</v>
       </c>
       <c r="C197" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D197" s="22" t="s">
         <v>651</v>
       </c>
-      <c r="D197" s="22" t="s">
-        <v>653</v>
-      </c>
       <c r="E197" s="13" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>69</v>
@@ -28578,13 +28729,13 @@
         <v>209</v>
       </c>
       <c r="C198" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D198" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="E198" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="D198" s="22" t="s">
-        <v>656</v>
-      </c>
-      <c r="E198" s="13" t="s">
-        <v>657</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>220</v>
@@ -28610,13 +28761,13 @@
         <v>448</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D199" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="E199" s="13" t="s">
         <v>660</v>
-      </c>
-      <c r="E199" s="13" t="s">
-        <v>662</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>69</v>
@@ -28639,13 +28790,13 @@
         <v>455</v>
       </c>
       <c r="C200" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D200" s="22" t="s">
         <v>663</v>
       </c>
-      <c r="D200" s="22" t="s">
-        <v>665</v>
-      </c>
       <c r="E200" s="13" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>59</v>
@@ -28668,13 +28819,13 @@
         <v>229</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D201" s="22" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E201" s="13" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>303</v>
@@ -28697,13 +28848,13 @@
         <v>147</v>
       </c>
       <c r="C202" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D202" s="22" t="s">
         <v>668</v>
       </c>
-      <c r="D202" s="22" t="s">
-        <v>670</v>
-      </c>
       <c r="E202" s="13" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>32</v>
@@ -28720,19 +28871,19 @@
         <v>148</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D203" s="22" t="s">
+        <v>670</v>
+      </c>
+      <c r="E203" s="13" t="s">
         <v>672</v>
-      </c>
-      <c r="E203" s="13" t="s">
-        <v>674</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="P203" s="8" t="s">
         <v>5</v>
@@ -28749,13 +28900,13 @@
         <v>328</v>
       </c>
       <c r="C204" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D204" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="E204" s="13" t="s">
         <v>676</v>
-      </c>
-      <c r="D204" s="22" t="s">
-        <v>677</v>
-      </c>
-      <c r="E204" s="13" t="s">
-        <v>678</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>32</v>
@@ -28775,13 +28926,13 @@
         <v>143</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D205" s="22" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E205" s="13" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>4</v>
@@ -28798,13 +28949,13 @@
         <v>369</v>
       </c>
       <c r="C206" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D206" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="E206" s="13" t="s">
         <v>681</v>
-      </c>
-      <c r="D206" s="22" t="s">
-        <v>682</v>
-      </c>
-      <c r="E206" s="13" t="s">
-        <v>683</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>32</v>
@@ -28830,13 +28981,13 @@
         <v>400</v>
       </c>
       <c r="C207" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D207" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="E207" s="17" t="s">
         <v>684</v>
-      </c>
-      <c r="D207" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="E207" s="17" t="s">
-        <v>686</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>69</v>
@@ -28862,13 +29013,13 @@
         <v>384</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D208" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="E208" s="12" t="s">
         <v>688</v>
-      </c>
-      <c r="E208" s="12" t="s">
-        <v>690</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>59</v>
@@ -28888,13 +29039,13 @@
         <v>173</v>
       </c>
       <c r="C209" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D209" s="22" t="s">
         <v>692</v>
       </c>
-      <c r="D209" s="22" t="s">
-        <v>694</v>
-      </c>
       <c r="E209" s="13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>81</v>
@@ -28903,7 +29054,7 @@
         <v>42748</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="S209" s="8" t="s">
         <v>5</v>
@@ -28926,13 +29077,13 @@
         <v>284</v>
       </c>
       <c r="C210" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D210" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="E210" s="13" t="s">
         <v>697</v>
-      </c>
-      <c r="D210" s="22" t="s">
-        <v>698</v>
-      </c>
-      <c r="E210" s="13" t="s">
-        <v>699</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>81</v>
@@ -28941,7 +29092,7 @@
         <v>42748</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AH210" s="8" t="s">
         <v>5</v>
@@ -28955,13 +29106,13 @@
         <v>377</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D211" s="22" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E211" s="13" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>81</v>
@@ -28970,7 +29121,7 @@
         <v>42749</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AE211" s="8" t="s">
         <v>5</v>
@@ -28984,13 +29135,13 @@
         <v>31</v>
       </c>
       <c r="C212" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D212" s="22" t="s">
         <v>707</v>
       </c>
-      <c r="D212" s="22" t="s">
-        <v>709</v>
-      </c>
       <c r="E212" s="13" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>69</v>
@@ -29016,13 +29167,13 @@
         <v>386</v>
       </c>
       <c r="C213" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="D213" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="E213" s="13" t="s">
         <v>710</v>
-      </c>
-      <c r="D213" s="22" t="s">
-        <v>711</v>
-      </c>
-      <c r="E213" s="13" t="s">
-        <v>712</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>81</v>
@@ -29051,13 +29202,13 @@
         <v>129</v>
       </c>
       <c r="C214" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="D214" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="E214" s="13" t="s">
         <v>713</v>
-      </c>
-      <c r="D214" s="22" t="s">
-        <v>714</v>
-      </c>
-      <c r="E214" s="13" t="s">
-        <v>715</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>32</v>
@@ -29080,13 +29231,13 @@
         <v>199</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D215" s="22" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E215" s="17" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>32</v>
@@ -29121,13 +29272,13 @@
         <v>116</v>
       </c>
       <c r="C216" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E216" s="13" t="s">
         <v>730</v>
-      </c>
-      <c r="D216" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="E216" s="13" t="s">
-        <v>732</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>69</v>
@@ -29174,13 +29325,13 @@
         <v>105</v>
       </c>
       <c r="C217" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="D217" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="E217" s="17" t="s">
         <v>733</v>
-      </c>
-      <c r="D217" s="22" t="s">
-        <v>734</v>
-      </c>
-      <c r="E217" s="17" t="s">
-        <v>735</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>81</v>
@@ -29209,13 +29360,13 @@
         <v>103</v>
       </c>
       <c r="C218" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D218" s="22" t="s">
+        <v>735</v>
+      </c>
+      <c r="E218" s="12" t="s">
         <v>736</v>
-      </c>
-      <c r="D218" s="22" t="s">
-        <v>737</v>
-      </c>
-      <c r="E218" s="12" t="s">
-        <v>738</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>32</v>
@@ -29241,13 +29392,13 @@
         <v>117</v>
       </c>
       <c r="C219" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D219" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="E219" s="12" t="s">
         <v>739</v>
-      </c>
-      <c r="D219" s="22" t="s">
-        <v>742</v>
-      </c>
-      <c r="E219" s="12" t="s">
-        <v>741</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>32</v>
@@ -29273,10 +29424,10 @@
         <v>66</v>
       </c>
       <c r="D220" s="22" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E220" s="13" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>59</v>
@@ -29296,13 +29447,13 @@
         <v>106</v>
       </c>
       <c r="C221" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D221" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="E221" s="12" t="s">
         <v>745</v>
-      </c>
-      <c r="D221" s="22" t="s">
-        <v>746</v>
-      </c>
-      <c r="E221" s="12" t="s">
-        <v>747</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>32</v>
@@ -29319,13 +29470,13 @@
         <v>337</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D222" s="23" t="s">
+        <v>747</v>
+      </c>
+      <c r="E222" s="13" t="s">
         <v>749</v>
-      </c>
-      <c r="E222" s="13" t="s">
-        <v>751</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>32</v>
@@ -29351,13 +29502,13 @@
         <v>222</v>
       </c>
       <c r="C223" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D223" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="E223" s="13" t="s">
         <v>752</v>
-      </c>
-      <c r="D223" s="22" t="s">
-        <v>753</v>
-      </c>
-      <c r="E223" s="13" t="s">
-        <v>754</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>81</v>
@@ -29380,13 +29531,13 @@
         <v>250</v>
       </c>
       <c r="C224" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D224" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="E224" s="13" t="s">
         <v>755</v>
-      </c>
-      <c r="D224" s="13" t="s">
-        <v>756</v>
-      </c>
-      <c r="E224" s="13" t="s">
-        <v>757</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>69</v>
@@ -29409,13 +29560,13 @@
         <v>283</v>
       </c>
       <c r="C225" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D225" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="E225" s="13" t="s">
         <v>759</v>
-      </c>
-      <c r="D225" s="22" t="s">
-        <v>760</v>
-      </c>
-      <c r="E225" s="13" t="s">
-        <v>761</v>
       </c>
       <c r="F225" s="8" t="s">
         <v>59</v>
@@ -29441,10 +29592,10 @@
         <v>1</v>
       </c>
       <c r="C226" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="D226" s="22" t="s">
         <v>767</v>
-      </c>
-      <c r="D226" s="22" t="s">
-        <v>769</v>
       </c>
       <c r="F226" s="2"/>
       <c r="H226" t="s">
@@ -29454,7 +29605,7 @@
         <v>42771</v>
       </c>
       <c r="J226" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="L226" s="8" t="s">
         <v>5</v>
@@ -29468,7 +29619,7 @@
         <v>140</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>32</v>
@@ -29477,7 +29628,7 @@
         <v>42779</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="AE227" s="8" t="s">
         <v>5</v>
@@ -29491,10 +29642,10 @@
         <v>5</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E228" s="13" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>81</v>
@@ -29503,7 +29654,7 @@
         <v>42780</v>
       </c>
       <c r="J228" s="8" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="229" spans="1:38" ht="87" x14ac:dyDescent="0.35">
@@ -29514,13 +29665,13 @@
         <v>48</v>
       </c>
       <c r="C229" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="D229" s="22" t="s">
+        <v>781</v>
+      </c>
+      <c r="E229" s="13" t="s">
         <v>782</v>
-      </c>
-      <c r="D229" s="22" t="s">
-        <v>783</v>
-      </c>
-      <c r="E229" s="13" t="s">
-        <v>784</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>81</v>
@@ -29537,13 +29688,13 @@
         <v>210</v>
       </c>
       <c r="C230" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D230" s="22" t="s">
+        <v>789</v>
+      </c>
+      <c r="E230" s="13" t="s">
         <v>791</v>
-      </c>
-      <c r="D230" s="22" t="s">
-        <v>792</v>
-      </c>
-      <c r="E230" s="13" t="s">
-        <v>794</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>81</v>
@@ -29569,10 +29720,10 @@
         <v>200</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>81</v>
@@ -29598,10 +29749,10 @@
         <v>130</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E232" s="13" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>81</v>
@@ -29618,10 +29769,10 @@
         <v>98</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E233" s="13" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>81</v>
@@ -29630,7 +29781,7 @@
         <v>42805</v>
       </c>
       <c r="J233" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="S233" s="8" t="s">
         <v>5</v>
@@ -29644,13 +29795,13 @@
         <v>156</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D234" s="22" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E234" s="12" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>32</v>
@@ -29676,13 +29827,13 @@
         <v>255</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D235" s="22" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="J235" s="8" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K235" s="8" t="s">
         <v>5</v>
@@ -29699,13 +29850,13 @@
         <v>7</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D236" s="22" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E236" s="13" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>69</v>
@@ -29714,7 +29865,7 @@
         <v>42807</v>
       </c>
       <c r="J236" s="8" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="237" spans="1:38" ht="43.5" x14ac:dyDescent="0.35">
@@ -29725,10 +29876,10 @@
         <v>208</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E237" s="13" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>81</v>
@@ -29745,16 +29896,33 @@
         <v>146</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E238" s="13" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>237</v>
       </c>
       <c r="G238" s="9">
         <v>42808</v>
+      </c>
+    </row>
+    <row r="239" spans="1:38" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A239" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B239" s="8">
+        <v>104</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G239" s="9">
+        <v>42827</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="174" x14ac:dyDescent="0.35">
@@ -29773,7 +29941,7 @@
       <c r="F249" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ229"/>
+  <autoFilter ref="A1:AJ238"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -29785,7 +29953,7 @@
   <dimension ref="A1:AI231"/>
   <sheetViews>
     <sheetView topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A231" sqref="A231"/>
+      <selection activeCell="A226" sqref="A226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29877,7 +30045,7 @@
         <v>71</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>105</v>
@@ -29898,7 +30066,7 @@
         <v>452</v>
       </c>
       <c r="AH1" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.35">
@@ -34897,7 +35065,7 @@
       </c>
       <c r="D97" s="22"/>
       <c r="E97" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>4</v>
@@ -39502,10 +39670,10 @@
         <v>575</v>
       </c>
       <c r="D181" s="22" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E181" s="13" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>81</v>
@@ -39663,7 +39831,7 @@
         <v>590</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>4</v>
@@ -39711,13 +39879,13 @@
         <v>49</v>
       </c>
       <c r="C185" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D185" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="E185" s="13" t="s">
         <v>595</v>
-      </c>
-      <c r="D185" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="E185" s="13" t="s">
-        <v>596</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>32</v>
@@ -39726,7 +39894,7 @@
         <v>42377</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I185" s="2"/>
       <c r="J185" s="2" t="s">
@@ -39767,13 +39935,13 @@
         <v>382</v>
       </c>
       <c r="C186" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D186" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="E186" s="13" t="s">
         <v>603</v>
-      </c>
-      <c r="D186" s="22" t="s">
-        <v>599</v>
-      </c>
-      <c r="E186" s="13" t="s">
-        <v>604</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>4</v>
@@ -39823,13 +39991,13 @@
         <v>398</v>
       </c>
       <c r="C187" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D187" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="E187" s="13" t="s">
         <v>605</v>
-      </c>
-      <c r="D187" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="E187" s="13" t="s">
-        <v>606</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>4</v>
@@ -39879,13 +40047,13 @@
         <v>11</v>
       </c>
       <c r="C188" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D188" s="22" t="s">
         <v>609</v>
       </c>
-      <c r="D188" s="22" t="s">
-        <v>610</v>
-      </c>
       <c r="E188" s="13" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>81</v>
@@ -39935,13 +40103,13 @@
         <v>42</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D189" s="22" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E189" s="17" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>81</v>
@@ -39950,7 +40118,7 @@
         <v>42744</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
@@ -39993,13 +40161,13 @@
         <v>80</v>
       </c>
       <c r="C190" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D190" s="22" t="s">
         <v>615</v>
       </c>
-      <c r="D190" s="22" t="s">
+      <c r="E190" s="17" t="s">
         <v>616</v>
-      </c>
-      <c r="E190" s="17" t="s">
-        <v>617</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>127</v>
@@ -40049,13 +40217,13 @@
         <v>81</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D191" s="22" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>220</v>
@@ -40105,13 +40273,13 @@
         <v>33</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D192" s="22" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E192" s="13" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>32</v>
@@ -40120,7 +40288,7 @@
         <v>42745</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
@@ -40161,13 +40329,13 @@
         <v>54</v>
       </c>
       <c r="C193" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D193" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="E193" s="13" t="s">
         <v>626</v>
-      </c>
-      <c r="D193" s="22" t="s">
-        <v>627</v>
-      </c>
-      <c r="E193" s="13" t="s">
-        <v>628</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>69</v>
@@ -40176,7 +40344,7 @@
         <v>42745</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
@@ -40215,13 +40383,13 @@
         <v>59</v>
       </c>
       <c r="C194" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D194" s="22" t="s">
+        <v>630</v>
+      </c>
+      <c r="E194" s="13" t="s">
         <v>631</v>
-      </c>
-      <c r="D194" s="22" t="s">
-        <v>632</v>
-      </c>
-      <c r="E194" s="13" t="s">
-        <v>633</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>32</v>
@@ -40267,13 +40435,13 @@
         <v>73</v>
       </c>
       <c r="C195" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D195" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="E195" s="13" t="s">
         <v>634</v>
-      </c>
-      <c r="D195" s="22" t="s">
-        <v>635</v>
-      </c>
-      <c r="E195" s="13" t="s">
-        <v>636</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>32</v>
@@ -40282,7 +40450,7 @@
         <v>42745</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
@@ -40321,13 +40489,13 @@
         <v>289</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D196" s="22" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E196" s="13" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>81</v>
@@ -40336,7 +40504,7 @@
         <v>42746</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
@@ -40377,13 +40545,13 @@
         <v>228</v>
       </c>
       <c r="C197" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D197" s="22" t="s">
         <v>651</v>
       </c>
-      <c r="D197" s="22" t="s">
-        <v>653</v>
-      </c>
       <c r="E197" s="13" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>69</v>
@@ -40431,13 +40599,13 @@
         <v>209</v>
       </c>
       <c r="C198" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D198" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="E198" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="D198" s="22" t="s">
-        <v>656</v>
-      </c>
-      <c r="E198" s="13" t="s">
-        <v>657</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>220</v>
@@ -40487,13 +40655,13 @@
         <v>448</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D199" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="E199" s="13" t="s">
         <v>660</v>
-      </c>
-      <c r="E199" s="13" t="s">
-        <v>662</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>69</v>
@@ -40541,13 +40709,13 @@
         <v>455</v>
       </c>
       <c r="C200" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D200" s="22" t="s">
         <v>663</v>
       </c>
-      <c r="D200" s="22" t="s">
-        <v>665</v>
-      </c>
       <c r="E200" s="13" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>59</v>
@@ -40595,13 +40763,13 @@
         <v>229</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D201" s="22" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E201" s="13" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>303</v>
@@ -40649,13 +40817,13 @@
         <v>147</v>
       </c>
       <c r="C202" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D202" s="22" t="s">
         <v>668</v>
       </c>
-      <c r="D202" s="22" t="s">
-        <v>670</v>
-      </c>
       <c r="E202" s="13" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>32</v>
@@ -40699,19 +40867,19 @@
         <v>148</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D203" s="22" t="s">
+        <v>670</v>
+      </c>
+      <c r="E203" s="13" t="s">
         <v>672</v>
-      </c>
-      <c r="E203" s="13" t="s">
-        <v>674</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
@@ -40753,13 +40921,13 @@
         <v>328</v>
       </c>
       <c r="C204" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D204" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="E204" s="13" t="s">
         <v>676</v>
-      </c>
-      <c r="D204" s="22" t="s">
-        <v>677</v>
-      </c>
-      <c r="E204" s="13" t="s">
-        <v>678</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>32</v>
@@ -40805,13 +40973,13 @@
         <v>143</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D205" s="22" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E205" s="13" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>4</v>
@@ -40855,13 +41023,13 @@
         <v>369</v>
       </c>
       <c r="C206" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D206" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="E206" s="13" t="s">
         <v>681</v>
-      </c>
-      <c r="D206" s="22" t="s">
-        <v>682</v>
-      </c>
-      <c r="E206" s="13" t="s">
-        <v>683</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>32</v>
@@ -40911,13 +41079,13 @@
         <v>400</v>
       </c>
       <c r="C207" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D207" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="E207" s="17" t="s">
         <v>684</v>
-      </c>
-      <c r="D207" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="E207" s="17" t="s">
-        <v>686</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>69</v>
@@ -40967,13 +41135,13 @@
         <v>384</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D208" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="E208" s="13" t="s">
         <v>688</v>
-      </c>
-      <c r="E208" s="13" t="s">
-        <v>690</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>59</v>
@@ -41019,13 +41187,13 @@
         <v>173</v>
       </c>
       <c r="C209" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D209" s="22" t="s">
         <v>692</v>
       </c>
-      <c r="D209" s="22" t="s">
-        <v>694</v>
-      </c>
       <c r="E209" s="13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>81</v>
@@ -41034,7 +41202,7 @@
         <v>42748</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
@@ -41079,13 +41247,13 @@
         <v>284</v>
       </c>
       <c r="C210" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D210" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="E210" s="13" t="s">
         <v>697</v>
-      </c>
-      <c r="D210" s="22" t="s">
-        <v>698</v>
-      </c>
-      <c r="E210" s="13" t="s">
-        <v>699</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>81</v>
@@ -41094,7 +41262,7 @@
         <v>42748</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
@@ -41133,13 +41301,13 @@
         <v>377</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D211" s="22" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E211" s="13" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>81</v>
@@ -41148,7 +41316,7 @@
         <v>42749</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
@@ -41187,13 +41355,13 @@
         <v>31</v>
       </c>
       <c r="C212" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D212" s="22" t="s">
         <v>707</v>
       </c>
-      <c r="D212" s="22" t="s">
-        <v>709</v>
-      </c>
       <c r="E212" s="13" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>69</v>
@@ -41241,13 +41409,13 @@
         <v>386</v>
       </c>
       <c r="C213" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="D213" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="E213" s="13" t="s">
         <v>710</v>
-      </c>
-      <c r="D213" s="22" t="s">
-        <v>711</v>
-      </c>
-      <c r="E213" s="13" t="s">
-        <v>712</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>81</v>
@@ -41297,13 +41465,13 @@
         <v>129</v>
       </c>
       <c r="C214" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="D214" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="E214" s="13" t="s">
         <v>713</v>
-      </c>
-      <c r="D214" s="22" t="s">
-        <v>714</v>
-      </c>
-      <c r="E214" s="13" t="s">
-        <v>715</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>32</v>
@@ -41351,11 +41519,11 @@
         <v>114</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D215" s="22"/>
       <c r="E215" s="13" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>32</v>
@@ -41399,7 +41567,7 @@
         <v>199</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>32</v>
@@ -41416,7 +41584,7 @@
         <v>116</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>69</v>
@@ -41433,7 +41601,7 @@
         <v>103</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D218" s="22"/>
       <c r="E218" s="12"/>
@@ -41478,7 +41646,7 @@
         <v>105</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>81</v>
@@ -41495,13 +41663,13 @@
         <v>117</v>
       </c>
       <c r="C220" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D220" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="E220" s="12" t="s">
         <v>739</v>
-      </c>
-      <c r="D220" s="22" t="s">
-        <v>742</v>
-      </c>
-      <c r="E220" s="12" t="s">
-        <v>741</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>32</v>
@@ -41551,10 +41719,10 @@
         <v>66</v>
       </c>
       <c r="D221" s="22" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E221" s="13" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>59</v>
@@ -41599,13 +41767,13 @@
         <v>106</v>
       </c>
       <c r="C222" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D222" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="E222" s="12" t="s">
         <v>745</v>
-      </c>
-      <c r="D222" s="22" t="s">
-        <v>746</v>
-      </c>
-      <c r="E222" s="12" t="s">
-        <v>747</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>32</v>
@@ -41622,13 +41790,13 @@
         <v>337</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D223" s="23" t="s">
+        <v>747</v>
+      </c>
+      <c r="E223" s="13" t="s">
         <v>749</v>
-      </c>
-      <c r="E223" s="13" t="s">
-        <v>751</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>32</v>
@@ -41645,13 +41813,13 @@
         <v>222</v>
       </c>
       <c r="C224" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D224" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="E224" s="13" t="s">
         <v>752</v>
-      </c>
-      <c r="D224" s="22" t="s">
-        <v>753</v>
-      </c>
-      <c r="E224" s="13" t="s">
-        <v>754</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>81</v>
@@ -41668,13 +41836,13 @@
         <v>250</v>
       </c>
       <c r="C225" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D225" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="E225" s="13" t="s">
         <v>755</v>
-      </c>
-      <c r="D225" s="13" t="s">
-        <v>756</v>
-      </c>
-      <c r="E225" s="13" t="s">
-        <v>757</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>69</v>
@@ -41757,8 +41925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41805,7 +41973,7 @@
         <v>195</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="171" customHeight="1" x14ac:dyDescent="0.35">
@@ -41813,7 +41981,7 @@
         <v>256</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>477</v>
@@ -41824,7 +41992,7 @@
         <v>257</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>788</v>
+        <v>833</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>260</v>
@@ -41851,18 +42019,18 @@
     </row>
     <row r="9" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="203" x14ac:dyDescent="0.35">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="232" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>809</v>
+        <v>835</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
@@ -41870,23 +42038,23 @@
         <v>12</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="145" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
   </sheetData>
@@ -41937,7 +42105,7 @@
         <v>321</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -41966,10 +42134,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -41980,11 +42148,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41999,7 +42167,7 @@
         <v>424</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
@@ -42012,10 +42180,10 @@
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -42023,7 +42191,7 @@
         <v>425</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -42060,18 +42228,34 @@
     </row>
     <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>591</v>
+        <v>828</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -42092,10 +42276,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -42107,8 +42291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42130,7 +42314,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -42143,26 +42327,26 @@
     </row>
     <row r="4" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>620</v>
+        <v>822</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>
